--- a/02-reportes-scripts/02-psicometrico/00-efa/00-efa-indicadores.xlsx
+++ b/02-reportes-scripts/02-psicometrico/00-efa/00-efa-indicadores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="247">
   <si>
     <t xml:space="preserve">indicador</t>
   </si>
@@ -100,12 +100,6 @@
     <t xml:space="preserve">EM2022_2Sdirector_EBR</t>
   </si>
   <si>
-    <t xml:space="preserve">Colaboración entre docentes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DIR2SGEN_COLDOC</t>
-  </si>
-  <si>
     <t xml:space="preserve">Clima escolar: Interacción entre docentes</t>
   </si>
   <si>
@@ -130,6 +124,69 @@
     <t xml:space="preserve">DIR2SGEN_BIENES</t>
   </si>
   <si>
+    <t xml:space="preserve">EM2022_2SdocenteCOM_EBR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Autoeficacia para el manejo de la disciplina en el aula</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DOC2SGEN_AUTDIS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Actividades asociadas a la capacidad de Reflexión</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DOC2SLEC_ACTREF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Creencias sobre la lectura: Lectura como talento natural</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DOC2SLEC_CLCOAPR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Creencias sobre la Lectura como competencia aprendida</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Percepciones sobre los resultados del uso de la tecnología en el aprendizaje</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DOC2SGEN_PERTEC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EM2022_2SdocenteCYT_EBR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Creencias sobre el aprendizaje de la Ciencia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DOC2SCYT_CREEAPR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Creencias epistemológicas sobre la ciencia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DOC2SCYT_CREEEPISTEM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Autoeficacia docente para la enseñanza de CyT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DOC2SCYT_AUTCT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Autoeficacia docente para el desarrollo de actividades de investigación científica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DOC2SCYT_AUTACTINV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Autoeficacia docente para el desarrollo de la competencia de posición crítica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DOC2SCYT_AUTCOMPCRIT</t>
+  </si>
+  <si>
     <t xml:space="preserve">Enunciado</t>
   </si>
   <si>
@@ -166,196 +223,538 @@
     <t xml:space="preserve">4.4</t>
   </si>
   <si>
-    <t xml:space="preserve">Observar las clases de otros docentes y darles retroalimentación sobre su forma de enseñanza.</t>
+    <t xml:space="preserve">Los docentes dialogan abiertamente entre sí.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p14_01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Los docentes están dispuestos a trabajar en equipo sin ninguna distinción.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p14_02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Los docentes tienen problemas para trabajar en equipo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p14_03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Los docentes comparten un vínculo de identidad con la escuela.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p14_04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Los docentes interactúan con cordialidad y respeto dentro y fuera de la escuela.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p14_05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La relación entre los docentes se caracteriza por la tensión y el conflicto.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p14_06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Los docentes colaboran entre sí para alcanzar los objetivos trazados por la institución educativa.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p14_07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Docentes de la institución educativa que dirige</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p15_01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Padres de familia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p15_02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Autoridades educativas de la UGEL o de la DRE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p15_03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Directores de otras instituciones educativas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p15_04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Organismos no gubernamentales (ONG)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p15_05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entidades privadas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p15_06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Los estudiantes alcanzarán los aprendizajes esperados si los docentes mantienen el aula tranquila.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p16_01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Es más importante que los docentes se enfoquen en los procesos de pensamiento y razonamiento que en el contenido curricular específico.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p16_02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Los buenos docentes demuestran la forma correcta en que se resuelve un problema.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p16_03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La enseñanza debe basarse en tareas con respuestas claras y correctas, en torno a ideas que la mayoría de los estudiantes puedan comprender rápidamente.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p16_04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El grado de aprendizaje de los estudiantes depende de los conocimientos previos que tengan, por eso los docentes necesitan enseñar mayormente con hechos, procedimientos, etc.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p16_05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Los docentes deben permitir que los estudiantes piensen en soluciones prácticas a sus trabajos antes de mostrarles cómo hacerlo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p16_06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Los docentes deben promover que los estudiantes indaguen por su cuenta.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p16_07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Los estudiantes aprenden mejor con docentes que les alientan a buscar soluciones por su cuenta.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p16_08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Me he sentido alegre y de buen humor.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p17_01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Me he sentido tranquilo y relajado.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p17_02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Me he sentido activo y con energía.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p17_03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Me he despertado fresco y descansado.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p17_04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mi vida diaria ha estado llena de cosas que me interesan.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p17_05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lograr que los estudiantes respeten las normas de la clase</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p06_01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manejar las interrupciones de los estudiantes durante las clases</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p06_02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Evitar que algún estudiante distraiga al resto durante las clases</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p06_03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acordar con los estudiantes cómo se espera que se comporten en clase.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p06_04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Establecer rutinas en clase para que las actividades planeadas se realicen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p06_05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Los oriento para que piensen en ejemplos o evoquen algún recuerdo a partir de lo que leen.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p11_01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fomento que dialoguen o comenten sobre lo que quiso comunicar el autor del texto.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p11_02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Promuevo que debatan sobre algún aspecto controversial encontrado en el texto.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p11_03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Los motivo a buscar información que les permita ampliar lo leído y compararlo con otros textos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p11_04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fomento que dialoguen sobre los pasajes del texto que hayan generado mayores dificultades, a fin de aclararlos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p11_05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Les propongo preguntas para formular juicios críticos sobre el contenido o la forma del texto.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p11_06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Los buenos lectores nacen con ese talento.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p12_01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La mejor manera de mejorar en lectura es leyendo bastante.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p12_02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Algunas personas comprenden lo que leen sin necesidad de esforzarse.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p12_03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Los buenos lectores se han esforzado mucho para desarrollar sus habilidades.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p12_04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Algunas personas tienen un don especial para la lectura</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p12_05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deseo, dedicación y tiempo suficiente es lo que se necesita para convertirse en un buen lector.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p12_06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Una persona puede leer mejor con la ayuda de un buen profesor.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p12_07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Algunas personas nunca serán buenas lectoras a pesar de lo mucho que lo intenten.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p12_08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ayuda a los estudiantes a desarrollar un mayor interés en el aprendizaje.</t>
   </si>
   <si>
     <t xml:space="preserve">p13_01</t>
   </si>
   <si>
-    <t xml:space="preserve">Trabajar en conjunto para proyectos específicos (concursos de conocimiento, otros).</t>
+    <t xml:space="preserve">Da como resultado una expresión escrita más pobre entre los estudiantes</t>
   </si>
   <si>
     <t xml:space="preserve">p13_02</t>
   </si>
   <si>
-    <t xml:space="preserve">Intercambiar entre ellos materiales de enseñanza.</t>
+    <t xml:space="preserve">Permite a los estudiantes colaborar de manera más efectiva.</t>
   </si>
   <si>
     <t xml:space="preserve">p13_03</t>
   </si>
   <si>
-    <t xml:space="preserve">Involucrarse en debates internos sobre el desarrollo de aprendizajes de grupos específicos de estudiantes.</t>
+    <t xml:space="preserve">Promueve que los estudiantes copien material de Internet</t>
   </si>
   <si>
     <t xml:space="preserve">p13_04</t>
   </si>
   <si>
-    <t xml:space="preserve">Debatir sobre las prácticas de evaluación sumativa y formativa que se realizan en la escuela.</t>
+    <t xml:space="preserve">Anima a los estudiantes a comunicarse más con sus compañeros.</t>
   </si>
   <si>
     <t xml:space="preserve">p13_05</t>
   </si>
   <si>
-    <t xml:space="preserve">Intercambiar ideas sobre el manejo de conductas inadecuadas de los estudiantes en el aula.</t>
+    <t xml:space="preserve">Ayuda a mejorar la capacidad de los estudiantes para leer y escribir.</t>
   </si>
   <si>
     <t xml:space="preserve">p13_06</t>
   </si>
   <si>
-    <t xml:space="preserve">Los docentes dialogan abiertamente entre sí.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p14_01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Los docentes están dispuestos a trabajar en equipo sin ninguna distinción.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p14_02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Los docentes tienen problemas para trabajar en equipo.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p14_03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Los docentes comparten un vínculo de identidad con la escuela.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p14_04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Los docentes interactúan con cordialidad y respeto dentro y fuera de la escuela.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p14_05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">La relación entre los docentes se caracteriza por la tensión y el conflicto.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p14_06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Los docentes colaboran entre sí para alcanzar los objetivos trazados por la institución educativa.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p14_07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Docentes de la institución educativa que dirige</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p15_01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Padres de familia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p15_02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Autoridades educativas de la UGEL o de la DRE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p15_03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Directores de otras instituciones educativas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p15_04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Organismos no gubernamentales (ONG)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p15_05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Entidades privadas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p15_06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Los estudiantes alcanzarán los aprendizajes esperados si los docentes mantienen el aula tranquila.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p16_01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Es más importante que los docentes se enfoquen en los procesos de pensamiento y razonamiento que en el contenido curricular específico.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p16_02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Los buenos docentes demuestran la forma correcta en que se resuelve un problema.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p16_03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">La enseñanza debe basarse en tareas con respuestas claras y correctas, en torno a ideas que la mayoría de los estudiantes puedan comprender rápidamente.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p16_04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">El grado de aprendizaje de los estudiantes depende de los conocimientos previos que tengan, por eso los docentes necesitan enseñar mayormente con hechos, procedimientos, etc.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p16_05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Los docentes deben permitir que los estudiantes piensen en soluciones prácticas a sus trabajos antes de mostrarles cómo hacerlo.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p16_06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Los docentes deben promover que los estudiantes indaguen por su cuenta.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p16_07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Los estudiantes aprenden mejor con docentes que les alientan a buscar soluciones por su cuenta.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p16_08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Me he sentido alegre y de buen humor.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p17_01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Me he sentido tranquilo y relajado.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p17_02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Me he sentido activo y con energía.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p17_03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Me he despertado fresco y descansado.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p17_04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mi vida diaria ha estado llena de cosas que me interesan.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p17_05</t>
+    <t xml:space="preserve">Distrae a los estudiantes en sus procesos de aprendizaje</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p13_07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Permite a los estudiantes ser más creativos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p13_08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Permite a los estudiantes expresar mejor sus ideas y pensamientos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p13_09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Permite a los estudiantes acceder a mejores fuentes de información.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p13_10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Impide la formación de conceptos adecuados por parte de los estudiantes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p13_11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aprender ciencia significa memorizar conceptos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aprender ciencia significa recordar lo que el docente expone en clase.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aprender ciencia significa sacarse buenas notas en los exámenes.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aprender ciencia es realizar cálculos matemáticos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aprender ciencia significa saber cómo usar las fórmulas científicas para resolver un problema científico.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aprender ciencia significa estudiar de memoria los pasos del método científico.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Las teorías científicas basadas en experimentaciones u observaciones rigurosas pueden cambiar a través del tiempo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El conocimiento científico es inexacto, siempre hay cierta incertidumbre.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lo que afirman los científicos siempre es verdad.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Los libros contienen ideas científicas que pueden cambiar con el tiempo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Todos los problemas científicos se resuelven de una sola manera.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El conocimiento científico siempre es verdadero.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A veces los científicos cambian de opinión sobre lo que es verdad en ciencia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lo más importante de hacer ciencia es llegar a la respuesta correcta.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p14_08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plantear actividades relacionadas con el movimiento rectilíneo uniforme y movimiento rectilíneo uniformemente variado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plantear ejemplos de temperatura y calor para los estudiantes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Explicar a profundidad la clasificación de los seres vivos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Explicar las conversiones entre múltiplos y submúltiplos de las unidades del Sistema Internacional</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Explicar a profundidad los temas sobre el origen y evolución del universo y sus teorías</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Explicar contenidos sobre las células, su apariencia y estructura</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enseñar los temas de calentamiento global</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p15_07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enseñar los temas de ciclos biogeoquímicos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p15_08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enseñar sobre las teorías atómicas y la Tabla Periódica de los elementos químicos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p15_09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Realizar actividades que fomenten el sustento de posiciones frente a situaciones sociocientíficas (controversias sociales que tienen su base en nociones científicas)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p15_10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Realizar actividades que desarrollen el pensamiento crítico</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p15_11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Explicar la selección natural de los seres vivos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p15_12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Observar un fenómeno natural y describir lo que ven</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Observar la demostración de un principio científico a través de un experimento</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diseñar y planificar experimentos o indagaciones científicas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Realizar experimentos o indagaciones científicas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Presentar resultados sobre experimentos o investigaciones</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Interpretar los resultados de experimentos o investigaciones</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elaborar conclusiones usando evidencia de experimentos o investigaciones</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Memorizar hechos y principios científicos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Usar fórmulas científicas y leyes para resolver problemas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p16_09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hacer trabajo de campo (por ejemplo, recolectar información o hacer observaciones fuera del aula)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p16_10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Evaluar los procedimientos experimentales que realizan en clase</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p16_11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Proponer nuevas indagaciones a partir de los resultados o conclusiones de sus experimentos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p16_12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seguir los pasos de una guía de laboratorio para realizar sus experimentos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p16_13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buscar y evaluar información científica para tomar decisiones</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p16_14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Desarrollar estudios de caso para que los estudiantes emitan un juicio crítico</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Desarrollar actividades para que los estudiantes aprendan a formular argumentos científicos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plantear actividades para que los estudiantes desarrollen habilidades de argumentación científica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Promover que los estudiantes realicen afirmaciones o conclusiones sustentadas en evidencias</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Desarrollar tareas colaborativas de construcción de argumentos científicos entre los estudiantes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verificar que los estudiantes emitan una opinión sustentada de un tema científico usando bibliografía actualizada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p17_06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Orientar a los estudiantes a formular opiniones sustentadas frente a temas científicos controversiales (por ejemplo: la clonación, modificación genética, efectos de la inteligencia artificial, etc.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p17_07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acompañar la metacognición de los estudiantes sobre sus formas de aprender en ciencias</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p17_08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Proponer situaciones que requieran que los estudiantes busquen y evalúen información científica para tomar decisiones</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p17_09</t>
   </si>
 </sst>
 </file>
@@ -817,25 +1216,25 @@
         <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1589</v>
+        <v>0.2851</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0786</v>
+        <v>0.1074</v>
       </c>
       <c r="G2" t="n">
-        <v>0.8306</v>
+        <v>0.6656</v>
       </c>
       <c r="H2" t="n">
-        <v>0.8254</v>
+        <v>0.8993</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0.0711</v>
+        <v>0.1025</v>
       </c>
       <c r="K2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2" t="n">
         <v>1</v>
@@ -855,25 +1254,25 @@
         <v>2</v>
       </c>
       <c r="E3" t="n">
-        <v>0.2001</v>
+        <v>0.3111</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0602</v>
+        <v>0.0544</v>
       </c>
       <c r="G3" t="n">
-        <v>0.7308</v>
+        <v>0.6008</v>
       </c>
       <c r="H3" t="n">
-        <v>0.804</v>
+        <v>0.8111</v>
       </c>
       <c r="I3" t="n">
-        <v>0.8936</v>
+        <v>0.9611</v>
       </c>
       <c r="J3" t="n">
-        <v>0.1509</v>
+        <v>0.1364</v>
       </c>
       <c r="K3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3" t="n">
         <v>1</v>
@@ -892,24 +1291,26 @@
       <c r="D4" t="n">
         <v>3</v>
       </c>
-      <c r="E4"/>
+      <c r="E4" t="n">
+        <v>0.2331</v>
+      </c>
       <c r="F4" t="n">
-        <v>0.0058</v>
-      </c>
-      <c r="G4" t="e">
-        <v>#NUM!</v>
+        <v>0.0202</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.7754</v>
       </c>
       <c r="H4" t="n">
-        <v>0.7326</v>
+        <v>0.5499</v>
       </c>
       <c r="I4" t="n">
-        <v>0.915</v>
+        <v>0.9002</v>
       </c>
       <c r="J4" t="n">
-        <v>0.2429</v>
+        <v>0.1561</v>
       </c>
       <c r="K4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4" t="n">
         <v>1</v>
@@ -930,22 +1331,22 @@
       </c>
       <c r="E5"/>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>0.0223</v>
       </c>
       <c r="G5" t="n">
-        <v>1.0252</v>
+        <v>3.0063</v>
       </c>
       <c r="H5" t="n">
-        <v>0.5064</v>
+        <v>0.5521</v>
       </c>
       <c r="I5" t="n">
-        <v>0.8001</v>
+        <v>0.8647</v>
       </c>
       <c r="J5" t="n">
-        <v>0.5073</v>
+        <v>0.2941</v>
       </c>
       <c r="K5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5" t="n">
         <v>1</v>
@@ -965,28 +1366,28 @@
         <v>1</v>
       </c>
       <c r="E6" t="n">
-        <v>0.2851</v>
+        <v>0.1974</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1074</v>
+        <v>0.1096</v>
       </c>
       <c r="G6" t="n">
-        <v>0.6656</v>
+        <v>0.6939</v>
       </c>
       <c r="H6" t="n">
-        <v>0.8993</v>
+        <v>0.7729</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.1025</v>
+        <v>0.0814</v>
       </c>
       <c r="K6" t="n">
         <v>2</v>
       </c>
       <c r="L6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -1003,28 +1404,28 @@
         <v>2</v>
       </c>
       <c r="E7" t="n">
-        <v>0.3111</v>
+        <v>0.1316</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0544</v>
+        <v>0.0345</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6008</v>
+        <v>0.8635</v>
       </c>
       <c r="H7" t="n">
-        <v>0.8111</v>
+        <v>0.7452</v>
       </c>
       <c r="I7" t="n">
-        <v>0.9611</v>
+        <v>0.8819</v>
       </c>
       <c r="J7" t="n">
-        <v>0.1364</v>
+        <v>0.1219</v>
       </c>
       <c r="K7" t="n">
         <v>2</v>
       </c>
       <c r="L7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8">
@@ -1040,29 +1441,27 @@
       <c r="D8" t="n">
         <v>3</v>
       </c>
-      <c r="E8" t="n">
-        <v>0.2331</v>
-      </c>
+      <c r="E8"/>
       <c r="F8" t="n">
-        <v>0.0202</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0.7754</v>
+        <v>0.0154</v>
+      </c>
+      <c r="G8" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="H8" t="n">
-        <v>0.5499</v>
+        <v>0.5841</v>
       </c>
       <c r="I8" t="n">
-        <v>0.9002</v>
+        <v>0.8571</v>
       </c>
       <c r="J8" t="n">
-        <v>0.1561</v>
+        <v>0.2171</v>
       </c>
       <c r="K8" t="n">
         <v>2</v>
       </c>
       <c r="L8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9">
@@ -1080,25 +1479,25 @@
       </c>
       <c r="E9"/>
       <c r="F9" t="n">
-        <v>0.0223</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>3.0063</v>
+        <v>1.0296</v>
       </c>
       <c r="H9" t="n">
-        <v>0.5521</v>
+        <v>0.5757</v>
       </c>
       <c r="I9" t="n">
-        <v>0.8647</v>
+        <v>0.8347</v>
       </c>
       <c r="J9" t="n">
-        <v>0.2941</v>
+        <v>0.4062</v>
       </c>
       <c r="K9" t="n">
         <v>2</v>
       </c>
       <c r="L9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10">
@@ -1115,22 +1514,22 @@
         <v>1</v>
       </c>
       <c r="E10" t="n">
-        <v>0.1974</v>
+        <v>0.2095</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1096</v>
+        <v>0.1692</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6939</v>
+        <v>0.5118</v>
       </c>
       <c r="H10" t="n">
-        <v>0.7729</v>
+        <v>0.5468</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0.0814</v>
+        <v>0.0829</v>
       </c>
       <c r="K10" t="n">
         <v>2</v>
@@ -1153,22 +1552,22 @@
         <v>2</v>
       </c>
       <c r="E11" t="n">
-        <v>0.1316</v>
+        <v>0.1223</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0345</v>
+        <v>0.0539</v>
       </c>
       <c r="G11" t="n">
-        <v>0.8635</v>
+        <v>0.8332</v>
       </c>
       <c r="H11" t="n">
-        <v>0.7452</v>
+        <v>0.7725</v>
       </c>
       <c r="I11" t="n">
-        <v>0.8819</v>
+        <v>0.8035</v>
       </c>
       <c r="J11" t="n">
-        <v>0.1219</v>
+        <v>0.0744</v>
       </c>
       <c r="K11" t="n">
         <v>2</v>
@@ -1190,21 +1589,23 @@
       <c r="D12" t="n">
         <v>3</v>
       </c>
-      <c r="E12"/>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
       <c r="F12" t="n">
-        <v>0.0154</v>
-      </c>
-      <c r="G12" t="e">
-        <v>#NUM!</v>
+        <v>0.0169</v>
+      </c>
+      <c r="G12" t="n">
+        <v>1.0003</v>
       </c>
       <c r="H12" t="n">
-        <v>0.5841</v>
+        <v>0.7241</v>
       </c>
       <c r="I12" t="n">
-        <v>0.8571</v>
+        <v>0.8421</v>
       </c>
       <c r="J12" t="n">
-        <v>0.2171</v>
+        <v>0.1033</v>
       </c>
       <c r="K12" t="n">
         <v>2</v>
@@ -1226,21 +1627,23 @@
       <c r="D13" t="n">
         <v>4</v>
       </c>
-      <c r="E13"/>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>0.0037</v>
       </c>
       <c r="G13" t="n">
-        <v>1.0296</v>
+        <v>1.0291</v>
       </c>
       <c r="H13" t="n">
-        <v>0.5757</v>
+        <v>0.638</v>
       </c>
       <c r="I13" t="n">
-        <v>0.8347</v>
+        <v>0.8537</v>
       </c>
       <c r="J13" t="n">
-        <v>0.4062</v>
+        <v>0.1677</v>
       </c>
       <c r="K13" t="n">
         <v>2</v>
@@ -1263,28 +1666,28 @@
         <v>1</v>
       </c>
       <c r="E14" t="n">
-        <v>0.2095</v>
+        <v>0.1834</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1692</v>
+        <v>0.0441</v>
       </c>
       <c r="G14" t="n">
-        <v>0.5118</v>
+        <v>0.8943</v>
       </c>
       <c r="H14" t="n">
-        <v>0.5468</v>
+        <v>0.9534</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0.0829</v>
+        <v>0.0915</v>
       </c>
       <c r="K14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -1301,28 +1704,28 @@
         <v>2</v>
       </c>
       <c r="E15" t="n">
-        <v>0.1223</v>
+        <v>0.0463</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0539</v>
+        <v>0.0082</v>
       </c>
       <c r="G15" t="n">
-        <v>0.8332</v>
+        <v>0.9932</v>
       </c>
       <c r="H15" t="n">
-        <v>0.7725</v>
+        <v>0.5473</v>
       </c>
       <c r="I15" t="n">
-        <v>0.8035</v>
+        <v>0.9661</v>
       </c>
       <c r="J15" t="n">
-        <v>0.0744</v>
+        <v>0.2053</v>
       </c>
       <c r="K15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -1338,29 +1741,27 @@
       <c r="D16" t="n">
         <v>3</v>
       </c>
-      <c r="E16" t="n">
+      <c r="E16"/>
+      <c r="F16" t="n">
         <v>0</v>
       </c>
-      <c r="F16" t="n">
-        <v>0.0169</v>
-      </c>
       <c r="G16" t="n">
-        <v>1.0003</v>
+        <v>1.0119</v>
       </c>
       <c r="H16" t="n">
-        <v>0.7241</v>
+        <v>0.4228</v>
       </c>
       <c r="I16" t="n">
-        <v>0.8421</v>
+        <v>0.8245</v>
       </c>
       <c r="J16" t="n">
-        <v>0.1033</v>
+        <v>0.3806</v>
       </c>
       <c r="K16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -1376,61 +1777,59 @@
       <c r="D17" t="n">
         <v>4</v>
       </c>
-      <c r="E17" t="n">
+      <c r="E17"/>
+      <c r="F17" t="n">
         <v>0</v>
       </c>
-      <c r="F17" t="n">
-        <v>0.0037</v>
-      </c>
       <c r="G17" t="n">
-        <v>1.0291</v>
+        <v>1.0119</v>
       </c>
       <c r="H17" t="n">
-        <v>0.638</v>
+        <v>0.4046</v>
       </c>
       <c r="I17" t="n">
-        <v>0.8537</v>
+        <v>0.7311</v>
       </c>
       <c r="J17" t="n">
-        <v>0.1677</v>
+        <v>1</v>
       </c>
       <c r="K17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="B18" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C18" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D18" t="n">
         <v>1</v>
       </c>
       <c r="E18" t="n">
-        <v>0.1834</v>
+        <v>0.0552</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0441</v>
+        <v>0.021</v>
       </c>
       <c r="G18" t="n">
-        <v>0.8943</v>
+        <v>0.9873</v>
       </c>
       <c r="H18" t="n">
-        <v>0.9534</v>
+        <v>0.9279</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0.0915</v>
+        <v>0.0672</v>
       </c>
       <c r="K18" t="n">
         <v>1</v>
@@ -1441,34 +1840,34 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="B19" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C19" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D19" t="n">
         <v>2</v>
       </c>
       <c r="E19" t="n">
-        <v>0.0463</v>
+        <v>0.093</v>
       </c>
       <c r="F19" t="n">
-        <v>0.0082</v>
+        <v>0.0119</v>
       </c>
       <c r="G19" t="n">
-        <v>0.9932</v>
+        <v>0.964</v>
       </c>
       <c r="H19" t="n">
-        <v>0.5473</v>
+        <v>0.6234</v>
       </c>
       <c r="I19" t="n">
-        <v>0.9661</v>
+        <v>0.94</v>
       </c>
       <c r="J19" t="n">
-        <v>0.2053</v>
+        <v>0.1954</v>
       </c>
       <c r="K19" t="n">
         <v>1</v>
@@ -1479,13 +1878,13 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="B20" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C20" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D20" t="n">
         <v>3</v>
@@ -1495,16 +1894,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.0119</v>
+        <v>1.011</v>
       </c>
       <c r="H20" t="n">
-        <v>0.4228</v>
+        <v>0.4124</v>
       </c>
       <c r="I20" t="n">
-        <v>0.8245</v>
+        <v>0.8003</v>
       </c>
       <c r="J20" t="n">
-        <v>0.3806</v>
+        <v>0.4939</v>
       </c>
       <c r="K20" t="n">
         <v>1</v>
@@ -1515,13 +1914,13 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="B21" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C21" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D21" t="n">
         <v>4</v>
@@ -1531,13 +1930,13 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.0119</v>
+        <v>1.011</v>
       </c>
       <c r="H21" t="n">
-        <v>0.4046</v>
+        <v>0.3485</v>
       </c>
       <c r="I21" t="n">
-        <v>0.7311</v>
+        <v>0.6284</v>
       </c>
       <c r="J21" t="n">
         <v>1</v>
@@ -1546,6 +1945,1214 @@
         <v>1</v>
       </c>
       <c r="L21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>36</v>
+      </c>
+      <c r="B22" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" t="s">
+        <v>40</v>
+      </c>
+      <c r="D22" t="n">
+        <v>1</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.1366</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.0462</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.8973</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.8867</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.0594</v>
+      </c>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>36</v>
+      </c>
+      <c r="B23" t="s">
+        <v>39</v>
+      </c>
+      <c r="C23" t="s">
+        <v>40</v>
+      </c>
+      <c r="D23" t="n">
+        <v>2</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.1694</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.0363</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.8418</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.7651</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0.9195</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0.1572</v>
+      </c>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>36</v>
+      </c>
+      <c r="B24" t="s">
+        <v>39</v>
+      </c>
+      <c r="C24" t="s">
+        <v>40</v>
+      </c>
+      <c r="D24" t="n">
+        <v>3</v>
+      </c>
+      <c r="E24"/>
+      <c r="F24" t="n">
+        <v>0.0098</v>
+      </c>
+      <c r="G24" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.4781</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0.8054</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0.246</v>
+      </c>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>36</v>
+      </c>
+      <c r="B25" t="s">
+        <v>39</v>
+      </c>
+      <c r="C25" t="s">
+        <v>40</v>
+      </c>
+      <c r="D25" t="n">
+        <v>4</v>
+      </c>
+      <c r="E25"/>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>1.0146</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.5136</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.8053</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0.4621</v>
+      </c>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>36</v>
+      </c>
+      <c r="B26" t="s">
+        <v>41</v>
+      </c>
+      <c r="C26" t="s">
+        <v>42</v>
+      </c>
+      <c r="D26" t="n">
+        <v>1</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.1808</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.1552</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.2177</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.334</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0.0652</v>
+      </c>
+      <c r="K26" t="n">
+        <v>2</v>
+      </c>
+      <c r="L26" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>36</v>
+      </c>
+      <c r="B27" t="s">
+        <v>43</v>
+      </c>
+      <c r="C27" t="s">
+        <v>42</v>
+      </c>
+      <c r="D27" t="n">
+        <v>2</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.1046</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.0521</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.7378</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.5747</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0.6378</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0.0588</v>
+      </c>
+      <c r="K27" t="n">
+        <v>2</v>
+      </c>
+      <c r="L27" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28" t="s">
+        <v>41</v>
+      </c>
+      <c r="C28" t="s">
+        <v>42</v>
+      </c>
+      <c r="D28" t="n">
+        <v>3</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.1388</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.048</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.5372</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.6193</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0.704</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0.1006</v>
+      </c>
+      <c r="K28" t="n">
+        <v>2</v>
+      </c>
+      <c r="L28" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>36</v>
+      </c>
+      <c r="B29" t="s">
+        <v>43</v>
+      </c>
+      <c r="C29" t="s">
+        <v>42</v>
+      </c>
+      <c r="D29" t="n">
+        <v>4</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.0079</v>
+      </c>
+      <c r="G29" t="n">
+        <v>1.0153</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.5911</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0.7187</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0.1631</v>
+      </c>
+      <c r="K29" t="n">
+        <v>2</v>
+      </c>
+      <c r="L29" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>36</v>
+      </c>
+      <c r="B30" t="s">
+        <v>44</v>
+      </c>
+      <c r="C30" t="s">
+        <v>45</v>
+      </c>
+      <c r="D30" t="n">
+        <v>1</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.1481</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.0851</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.762</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.8594</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="K30" t="n">
+        <v>2</v>
+      </c>
+      <c r="L30" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>36</v>
+      </c>
+      <c r="B31" t="s">
+        <v>44</v>
+      </c>
+      <c r="C31" t="s">
+        <v>45</v>
+      </c>
+      <c r="D31" t="n">
+        <v>2</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.1243</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.0488</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.832</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.6297</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0.9077</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0.0378</v>
+      </c>
+      <c r="K31" t="n">
+        <v>2</v>
+      </c>
+      <c r="L31" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>36</v>
+      </c>
+      <c r="B32" t="s">
+        <v>44</v>
+      </c>
+      <c r="C32" t="s">
+        <v>45</v>
+      </c>
+      <c r="D32" t="n">
+        <v>3</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.1206</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0.0382</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.8416</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0.4799</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0.819</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0.0542</v>
+      </c>
+      <c r="K32" t="n">
+        <v>2</v>
+      </c>
+      <c r="L32" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>36</v>
+      </c>
+      <c r="B33" t="s">
+        <v>44</v>
+      </c>
+      <c r="C33" t="s">
+        <v>45</v>
+      </c>
+      <c r="D33" t="n">
+        <v>4</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.1125</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.0285</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.8619</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0.4788</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0.8031</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0.0737</v>
+      </c>
+      <c r="K33" t="n">
+        <v>2</v>
+      </c>
+      <c r="L33" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>46</v>
+      </c>
+      <c r="B34" t="s">
+        <v>47</v>
+      </c>
+      <c r="C34" t="s">
+        <v>48</v>
+      </c>
+      <c r="D34" t="n">
+        <v>1</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.1851</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0.0821</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.7522</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0.8312</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0.0696</v>
+      </c>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>46</v>
+      </c>
+      <c r="B35" t="s">
+        <v>47</v>
+      </c>
+      <c r="C35" t="s">
+        <v>48</v>
+      </c>
+      <c r="D35" t="n">
+        <v>2</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.1164</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0.0305</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.9017</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0.6917</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0.8943</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0.1064</v>
+      </c>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>46</v>
+      </c>
+      <c r="B36" t="s">
+        <v>47</v>
+      </c>
+      <c r="C36" t="s">
+        <v>48</v>
+      </c>
+      <c r="D36" t="n">
+        <v>3</v>
+      </c>
+      <c r="E36"/>
+      <c r="F36" t="n">
+        <v>0.0013</v>
+      </c>
+      <c r="G36" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0.5492</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0.853</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0.2432</v>
+      </c>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>46</v>
+      </c>
+      <c r="B37" t="s">
+        <v>47</v>
+      </c>
+      <c r="C37" t="s">
+        <v>48</v>
+      </c>
+      <c r="D37" t="n">
+        <v>4</v>
+      </c>
+      <c r="E37"/>
+      <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="n">
+        <v>1.0201</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0.4411</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0.8063</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0.4202</v>
+      </c>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>46</v>
+      </c>
+      <c r="B38" t="s">
+        <v>49</v>
+      </c>
+      <c r="C38" t="s">
+        <v>50</v>
+      </c>
+      <c r="D38" t="n">
+        <v>1</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0.1963</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0.1583</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.2531</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0.3973</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0.0671</v>
+      </c>
+      <c r="K38" t="n">
+        <v>3</v>
+      </c>
+      <c r="L38" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>46</v>
+      </c>
+      <c r="B39" t="s">
+        <v>49</v>
+      </c>
+      <c r="C39" t="s">
+        <v>50</v>
+      </c>
+      <c r="D39" t="n">
+        <v>2</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0.1474</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0.0717</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.5778</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0.6445</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0.6708</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0.0718</v>
+      </c>
+      <c r="K39" t="n">
+        <v>3</v>
+      </c>
+      <c r="L39" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>46</v>
+      </c>
+      <c r="B40" t="s">
+        <v>49</v>
+      </c>
+      <c r="C40" t="s">
+        <v>50</v>
+      </c>
+      <c r="D40" t="n">
+        <v>3</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0.0647</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0.0241</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.9185</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0.6122</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0.7163</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0.0926</v>
+      </c>
+      <c r="K40" t="n">
+        <v>3</v>
+      </c>
+      <c r="L40" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>46</v>
+      </c>
+      <c r="B41" t="s">
+        <v>49</v>
+      </c>
+      <c r="C41" t="s">
+        <v>50</v>
+      </c>
+      <c r="D41" t="n">
+        <v>4</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0.0512</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.9488</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0.6749</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0.7829</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0.1537</v>
+      </c>
+      <c r="K41" t="n">
+        <v>3</v>
+      </c>
+      <c r="L41" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>46</v>
+      </c>
+      <c r="B42" t="s">
+        <v>51</v>
+      </c>
+      <c r="C42" t="s">
+        <v>52</v>
+      </c>
+      <c r="D42" t="n">
+        <v>1</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0.2088</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.6927</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0.9327</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0.0521</v>
+      </c>
+      <c r="K42" t="n">
+        <v>3</v>
+      </c>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>46</v>
+      </c>
+      <c r="B43" t="s">
+        <v>51</v>
+      </c>
+      <c r="C43" t="s">
+        <v>52</v>
+      </c>
+      <c r="D43" t="n">
+        <v>2</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0.1681</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0.0536</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.8004</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0.6961</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0.9599</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0.0488</v>
+      </c>
+      <c r="K43" t="n">
+        <v>3</v>
+      </c>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>46</v>
+      </c>
+      <c r="B44" t="s">
+        <v>51</v>
+      </c>
+      <c r="C44" t="s">
+        <v>52</v>
+      </c>
+      <c r="D44" t="n">
+        <v>3</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0.1519</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0.0345</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.8366</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0.5319</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0.8599</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0.0551</v>
+      </c>
+      <c r="K44" t="n">
+        <v>3</v>
+      </c>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>46</v>
+      </c>
+      <c r="B45" t="s">
+        <v>51</v>
+      </c>
+      <c r="C45" t="s">
+        <v>52</v>
+      </c>
+      <c r="D45" t="n">
+        <v>4</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0.1486</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0.0254</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0.8434</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0.413</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0.7146</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0.0713</v>
+      </c>
+      <c r="K45" t="n">
+        <v>3</v>
+      </c>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>46</v>
+      </c>
+      <c r="B46" t="s">
+        <v>53</v>
+      </c>
+      <c r="C46" t="s">
+        <v>54</v>
+      </c>
+      <c r="D46" t="n">
+        <v>1</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0.1703</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0.0812</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0.7162</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0.9123</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0.0347</v>
+      </c>
+      <c r="K46" t="n">
+        <v>3</v>
+      </c>
+      <c r="L46" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>53</v>
+      </c>
+      <c r="C47" t="s">
+        <v>54</v>
+      </c>
+      <c r="D47" t="n">
+        <v>2</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0.1631</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0.0588</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0.739</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0.6935</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0.9395</v>
+      </c>
+      <c r="J47" t="n">
+        <v>0.0383</v>
+      </c>
+      <c r="K47" t="n">
+        <v>3</v>
+      </c>
+      <c r="L47" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>53</v>
+      </c>
+      <c r="C48" t="s">
+        <v>54</v>
+      </c>
+      <c r="D48" t="n">
+        <v>3</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0.1548</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0.0425</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0.7644</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0.4732</v>
+      </c>
+      <c r="I48" t="n">
+        <v>0.8071</v>
+      </c>
+      <c r="J48" t="n">
+        <v>0.0445</v>
+      </c>
+      <c r="K48" t="n">
+        <v>3</v>
+      </c>
+      <c r="L48" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>46</v>
+      </c>
+      <c r="B49" t="s">
+        <v>53</v>
+      </c>
+      <c r="C49" t="s">
+        <v>54</v>
+      </c>
+      <c r="D49" t="n">
+        <v>4</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0.1601</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0.0348</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0.7476</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0.4743</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0.8088</v>
+      </c>
+      <c r="J49" t="n">
+        <v>0.053</v>
+      </c>
+      <c r="K49" t="n">
+        <v>3</v>
+      </c>
+      <c r="L49" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>46</v>
+      </c>
+      <c r="B50" t="s">
+        <v>55</v>
+      </c>
+      <c r="C50" t="s">
+        <v>56</v>
+      </c>
+      <c r="D50" t="n">
+        <v>1</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0.1996</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0.0927</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0.6973</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0.8834</v>
+      </c>
+      <c r="I50" t="n">
+        <v>0</v>
+      </c>
+      <c r="J50" t="n">
+        <v>0.0582</v>
+      </c>
+      <c r="K50" t="n">
+        <v>2</v>
+      </c>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>46</v>
+      </c>
+      <c r="B51" t="s">
+        <v>55</v>
+      </c>
+      <c r="C51" t="s">
+        <v>56</v>
+      </c>
+      <c r="D51" t="n">
+        <v>2</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0.1324</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0.0406</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0.8665</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0.5926</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0.9302</v>
+      </c>
+      <c r="J51" t="n">
+        <v>0.0531</v>
+      </c>
+      <c r="K51" t="n">
+        <v>2</v>
+      </c>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>46</v>
+      </c>
+      <c r="B52" t="s">
+        <v>55</v>
+      </c>
+      <c r="C52" t="s">
+        <v>56</v>
+      </c>
+      <c r="D52" t="n">
+        <v>3</v>
+      </c>
+      <c r="E52" t="n">
+        <v>0.1311</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0.0282</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0.8689</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0.4835</v>
+      </c>
+      <c r="I52" t="n">
+        <v>0.7941</v>
+      </c>
+      <c r="J52" t="n">
+        <v>0.0858</v>
+      </c>
+      <c r="K52" t="n">
+        <v>2</v>
+      </c>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>46</v>
+      </c>
+      <c r="B53" t="s">
+        <v>55</v>
+      </c>
+      <c r="C53" t="s">
+        <v>56</v>
+      </c>
+      <c r="D53" t="n">
+        <v>4</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0.1778</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0.0246</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0.7583</v>
+      </c>
+      <c r="H53" t="n">
+        <v>0.4627</v>
+      </c>
+      <c r="I53" t="n">
+        <v>0.7139</v>
+      </c>
+      <c r="J53" t="n">
+        <v>0.1284</v>
+      </c>
+      <c r="K53" t="n">
+        <v>2</v>
+      </c>
+      <c r="L53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1574,40 +3181,40 @@
         <v>17</v>
       </c>
       <c r="D1" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="E1" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="F1" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="G1" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="H1" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="I1" t="s">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="J1" t="s">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="K1" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="L1" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="M1" t="s">
-        <v>47</v>
+        <v>66</v>
       </c>
       <c r="N1" t="s">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="O1" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2">
@@ -1621,40 +3228,40 @@
         <v>29</v>
       </c>
       <c r="D2" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="E2" t="s">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="F2" t="n">
-        <v>0.3779</v>
+        <v>0.8094</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0011</v>
+        <v>0.7686</v>
       </c>
       <c r="H2" t="n">
-        <v>0.899</v>
+        <v>0.0714</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0106</v>
+        <v>-0.0418</v>
       </c>
       <c r="J2" t="n">
-        <v>0.0198</v>
+        <v>0.9877</v>
       </c>
       <c r="K2" t="n">
-        <v>0.9877</v>
+        <v>-0.0153</v>
       </c>
       <c r="L2" t="n">
-        <v>0.033</v>
+        <v>0.9911</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0313</v>
+        <v>-0.0919</v>
       </c>
       <c r="N2" t="n">
-        <v>0.039</v>
+        <v>0.0035</v>
       </c>
       <c r="O2" t="n">
-        <v>0.8548</v>
+        <v>0.1121</v>
       </c>
     </row>
     <row r="3">
@@ -1668,40 +3275,40 @@
         <v>29</v>
       </c>
       <c r="D3" t="s">
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="E3" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="F3" t="n">
-        <v>0.5559</v>
+        <v>0.8559</v>
       </c>
       <c r="G3" t="n">
-        <v>0.4454</v>
+        <v>0.8001</v>
       </c>
       <c r="H3" t="n">
-        <v>0.2364</v>
+        <v>0.1031</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.0057</v>
+        <v>0.1225</v>
       </c>
       <c r="J3" t="n">
-        <v>0.9902</v>
+        <v>0.8045</v>
       </c>
       <c r="K3" t="n">
-        <v>0.0305</v>
+        <v>0.0526</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.034</v>
+        <v>0.7621</v>
       </c>
       <c r="M3" t="n">
-        <v>0.8371</v>
+        <v>0.3146</v>
       </c>
       <c r="N3" t="n">
-        <v>-0.0437</v>
+        <v>0.0757</v>
       </c>
       <c r="O3" t="n">
-        <v>0.0965</v>
+        <v>-0.1563</v>
       </c>
     </row>
     <row r="4">
@@ -1715,40 +3322,40 @@
         <v>29</v>
       </c>
       <c r="D4" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="E4" t="s">
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="F4" t="n">
-        <v>0.6385</v>
+        <v>0.5007</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6559</v>
+        <v>0.0288</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.0055</v>
+        <v>0.7684</v>
       </c>
       <c r="I4" t="n">
-        <v>0.4654</v>
+        <v>0.0422</v>
       </c>
       <c r="J4" t="n">
-        <v>0.3495</v>
+        <v>-0.0302</v>
       </c>
       <c r="K4" t="n">
-        <v>-0.1033</v>
+        <v>0.7866</v>
       </c>
       <c r="L4" t="n">
-        <v>0.1551</v>
+        <v>-0.026</v>
       </c>
       <c r="M4" t="n">
-        <v>0.5687</v>
+        <v>0.0471</v>
       </c>
       <c r="N4" t="n">
-        <v>0.1543</v>
+        <v>0.8019</v>
       </c>
       <c r="O4" t="n">
-        <v>-0.1573</v>
+        <v>-0.0504</v>
       </c>
     </row>
     <row r="5">
@@ -1762,40 +3369,40 @@
         <v>29</v>
       </c>
       <c r="D5" t="s">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="E5" t="s">
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="F5" t="n">
-        <v>0.8169</v>
+        <v>0.8178</v>
       </c>
       <c r="G5" t="n">
-        <v>0.8603</v>
+        <v>0.8828</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.07</v>
+        <v>-0.072</v>
       </c>
       <c r="I5" t="n">
-        <v>0.8227</v>
+        <v>0.7959</v>
       </c>
       <c r="J5" t="n">
-        <v>0.06</v>
+        <v>0.0858</v>
       </c>
       <c r="K5" t="n">
-        <v>-0.0609</v>
+        <v>-0.0168</v>
       </c>
       <c r="L5" t="n">
-        <v>0.4909</v>
+        <v>0.0368</v>
       </c>
       <c r="M5" t="n">
-        <v>0.2184</v>
+        <v>0.7954</v>
       </c>
       <c r="N5" t="n">
-        <v>0.2282</v>
+        <v>0.014</v>
       </c>
       <c r="O5" t="n">
-        <v>-0.077</v>
+        <v>0.0996</v>
       </c>
     </row>
     <row r="6">
@@ -1809,40 +3416,40 @@
         <v>29</v>
       </c>
       <c r="D6" t="s">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="E6" t="s">
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="F6" t="n">
-        <v>0.8096</v>
+        <v>0.8339</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8064</v>
+        <v>0.8261</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0003</v>
+        <v>0.0162</v>
       </c>
       <c r="I6" t="n">
-        <v>0.8549</v>
+        <v>0.6885</v>
       </c>
       <c r="J6" t="n">
-        <v>-0.048</v>
+        <v>0.1412</v>
       </c>
       <c r="K6" t="n">
-        <v>0.027</v>
+        <v>0.0611</v>
       </c>
       <c r="L6" t="n">
-        <v>0.9581</v>
+        <v>0.1236</v>
       </c>
       <c r="M6" t="n">
-        <v>-0.0218</v>
+        <v>0.2918</v>
       </c>
       <c r="N6" t="n">
-        <v>-0.0183</v>
+        <v>0.0846</v>
       </c>
       <c r="O6" t="n">
-        <v>0.0377</v>
+        <v>0.6767</v>
       </c>
     </row>
     <row r="7">
@@ -1856,40 +3463,40 @@
         <v>29</v>
       </c>
       <c r="D7" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="E7" t="s">
-        <v>61</v>
+        <v>80</v>
       </c>
       <c r="F7" t="n">
-        <v>0.7662</v>
+        <v>0.4855</v>
       </c>
       <c r="G7" t="n">
-        <v>0.7251</v>
+        <v>-0.0098</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0838</v>
+        <v>0.8031</v>
       </c>
       <c r="I7" t="n">
-        <v>0.7656</v>
+        <v>-0.0438</v>
       </c>
       <c r="J7" t="n">
-        <v>-0.0445</v>
+        <v>0.0281</v>
       </c>
       <c r="K7" t="n">
-        <v>0.1044</v>
+        <v>0.8021</v>
       </c>
       <c r="L7" t="n">
-        <v>-0.0027</v>
+        <v>0.015</v>
       </c>
       <c r="M7" t="n">
-        <v>-0.0101</v>
+        <v>-0.0842</v>
       </c>
       <c r="N7" t="n">
-        <v>0.9579</v>
+        <v>0.7934</v>
       </c>
       <c r="O7" t="n">
-        <v>0.0304</v>
+        <v>0.0565</v>
       </c>
     </row>
     <row r="8">
@@ -1897,46 +3504,46 @@
         <v>27</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D8" t="s">
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="E8" t="s">
-        <v>63</v>
+        <v>82</v>
       </c>
       <c r="F8" t="n">
-        <v>0.8094</v>
+        <v>0.8508</v>
       </c>
       <c r="G8" t="n">
-        <v>0.7686</v>
+        <v>0.9104</v>
       </c>
       <c r="H8" t="n">
-        <v>-0.0714</v>
+        <v>-0.0479</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.0418</v>
+        <v>1.0038</v>
       </c>
       <c r="J8" t="n">
-        <v>0.9877</v>
+        <v>-0.0635</v>
       </c>
       <c r="K8" t="n">
-        <v>0.0153</v>
+        <v>-0.0006</v>
       </c>
       <c r="L8" t="n">
-        <v>0.9911</v>
+        <v>0.0649</v>
       </c>
       <c r="M8" t="n">
-        <v>-0.0919</v>
+        <v>0.7313</v>
       </c>
       <c r="N8" t="n">
-        <v>-0.0035</v>
+        <v>0.0645</v>
       </c>
       <c r="O8" t="n">
-        <v>0.1121</v>
+        <v>0.1297</v>
       </c>
     </row>
     <row r="9">
@@ -1950,40 +3557,40 @@
         <v>31</v>
       </c>
       <c r="D9" t="s">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="E9" t="s">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="F9" t="n">
-        <v>0.8559</v>
+        <v>0.4776</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8001</v>
+        <v>-0.0138</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.1031</v>
+        <v>0.9468</v>
       </c>
       <c r="I9" t="n">
-        <v>0.1225</v>
+        <v>0.0008</v>
       </c>
       <c r="J9" t="n">
-        <v>0.8045</v>
+        <v>0.9816</v>
       </c>
       <c r="K9" t="n">
-        <v>-0.0526</v>
+        <v>0.0072</v>
       </c>
       <c r="L9" t="n">
-        <v>0.7621</v>
+        <v>-0.0476</v>
       </c>
       <c r="M9" t="n">
-        <v>0.3146</v>
+        <v>0.1024</v>
       </c>
       <c r="N9" t="n">
-        <v>-0.0757</v>
+        <v>0.5743</v>
       </c>
       <c r="O9" t="n">
-        <v>-0.1563</v>
+        <v>0.2967</v>
       </c>
     </row>
     <row r="10">
@@ -1997,40 +3604,40 @@
         <v>31</v>
       </c>
       <c r="D10" t="s">
-        <v>66</v>
+        <v>85</v>
       </c>
       <c r="E10" t="s">
-        <v>67</v>
+        <v>86</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.5007</v>
+        <v>0.4374</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.0288</v>
+        <v>0.1143</v>
       </c>
       <c r="H10" t="n">
-        <v>0.7684</v>
+        <v>0.5383</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.0422</v>
+        <v>0.05</v>
       </c>
       <c r="J10" t="n">
-        <v>0.0302</v>
+        <v>0.5053</v>
       </c>
       <c r="K10" t="n">
-        <v>0.7866</v>
+        <v>0.114</v>
       </c>
       <c r="L10" t="n">
-        <v>0.026</v>
+        <v>0.0374</v>
       </c>
       <c r="M10" t="n">
-        <v>-0.0471</v>
+        <v>0.0057</v>
       </c>
       <c r="N10" t="n">
-        <v>0.8019</v>
+        <v>0.8499</v>
       </c>
       <c r="O10" t="n">
-        <v>0.0504</v>
+        <v>-0.0879</v>
       </c>
     </row>
     <row r="11">
@@ -2044,40 +3651,40 @@
         <v>31</v>
       </c>
       <c r="D11" t="s">
-        <v>68</v>
+        <v>87</v>
       </c>
       <c r="E11" t="s">
-        <v>69</v>
+        <v>88</v>
       </c>
       <c r="F11" t="n">
-        <v>0.8178</v>
+        <v>0.751</v>
       </c>
       <c r="G11" t="n">
-        <v>0.8828</v>
+        <v>0.7315</v>
       </c>
       <c r="H11" t="n">
-        <v>0.072</v>
+        <v>0.0539</v>
       </c>
       <c r="I11" t="n">
-        <v>0.7959</v>
+        <v>0.0171</v>
       </c>
       <c r="J11" t="n">
-        <v>0.0858</v>
+        <v>0.034</v>
       </c>
       <c r="K11" t="n">
-        <v>0.0168</v>
+        <v>0.9782</v>
       </c>
       <c r="L11" t="n">
-        <v>0.0368</v>
+        <v>0.0096</v>
       </c>
       <c r="M11" t="n">
-        <v>0.7954</v>
+        <v>0.9041</v>
       </c>
       <c r="N11" t="n">
-        <v>-0.014</v>
+        <v>0.0359</v>
       </c>
       <c r="O11" t="n">
-        <v>0.0996</v>
+        <v>-0.0304</v>
       </c>
     </row>
     <row r="12">
@@ -2091,40 +3698,40 @@
         <v>31</v>
       </c>
       <c r="D12" t="s">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="E12" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="F12" t="n">
-        <v>0.8339</v>
+        <v>0.7068</v>
       </c>
       <c r="G12" t="n">
-        <v>0.8261</v>
+        <v>0.699</v>
       </c>
       <c r="H12" t="n">
-        <v>-0.0162</v>
+        <v>0.0322</v>
       </c>
       <c r="I12" t="n">
-        <v>0.6885</v>
+        <v>0.4875</v>
       </c>
       <c r="J12" t="n">
-        <v>0.1412</v>
+        <v>0.0186</v>
       </c>
       <c r="K12" t="n">
-        <v>-0.0611</v>
+        <v>0.2636</v>
       </c>
       <c r="L12" t="n">
-        <v>0.1236</v>
+        <v>0.2354</v>
       </c>
       <c r="M12" t="n">
-        <v>0.2918</v>
+        <v>0.4455</v>
       </c>
       <c r="N12" t="n">
-        <v>-0.0846</v>
+        <v>-0.0682</v>
       </c>
       <c r="O12" t="n">
-        <v>0.6767</v>
+        <v>0.3084</v>
       </c>
     </row>
     <row r="13">
@@ -2138,40 +3745,40 @@
         <v>31</v>
       </c>
       <c r="D13" t="s">
-        <v>72</v>
+        <v>91</v>
       </c>
       <c r="E13" t="s">
-        <v>73</v>
+        <v>92</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.4855</v>
+        <v>0.7447</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0098</v>
+        <v>0.8514</v>
       </c>
       <c r="H13" t="n">
-        <v>0.8031</v>
+        <v>-0.0898</v>
       </c>
       <c r="I13" t="n">
-        <v>0.0438</v>
+        <v>0.6576</v>
       </c>
       <c r="J13" t="n">
-        <v>-0.0281</v>
+        <v>-0.1</v>
       </c>
       <c r="K13" t="n">
-        <v>0.8021</v>
+        <v>0.2316</v>
       </c>
       <c r="L13" t="n">
-        <v>-0.015</v>
+        <v>0.8331</v>
       </c>
       <c r="M13" t="n">
-        <v>0.0842</v>
+        <v>0.0962</v>
       </c>
       <c r="N13" t="n">
-        <v>0.7934</v>
+        <v>-0.0132</v>
       </c>
       <c r="O13" t="n">
-        <v>-0.0565</v>
+        <v>-0.0962</v>
       </c>
     </row>
     <row r="14">
@@ -2185,40 +3792,40 @@
         <v>31</v>
       </c>
       <c r="D14" t="s">
-        <v>74</v>
+        <v>93</v>
       </c>
       <c r="E14" t="s">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="F14" t="n">
-        <v>0.8508</v>
+        <v>0.6635</v>
       </c>
       <c r="G14" t="n">
-        <v>0.9104</v>
+        <v>0.5697</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0479</v>
+        <v>0.1665</v>
       </c>
       <c r="I14" t="n">
-        <v>1.0038</v>
+        <v>0.7912</v>
       </c>
       <c r="J14" t="n">
-        <v>-0.0635</v>
+        <v>0.1027</v>
       </c>
       <c r="K14" t="n">
-        <v>0.0006</v>
+        <v>-0.1227</v>
       </c>
       <c r="L14" t="n">
-        <v>0.0649</v>
+        <v>0.6018</v>
       </c>
       <c r="M14" t="n">
-        <v>0.7313</v>
+        <v>-0.0783</v>
       </c>
       <c r="N14" t="n">
-        <v>-0.0645</v>
+        <v>0.1348</v>
       </c>
       <c r="O14" t="n">
-        <v>0.1297</v>
+        <v>0.2814</v>
       </c>
     </row>
     <row r="15">
@@ -2232,40 +3839,40 @@
         <v>33</v>
       </c>
       <c r="D15" t="s">
-        <v>76</v>
+        <v>95</v>
       </c>
       <c r="E15" t="s">
-        <v>77</v>
+        <v>96</v>
       </c>
       <c r="F15" t="n">
-        <v>0.4776</v>
+        <v>0.127</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.0138</v>
+        <v>0.0121</v>
       </c>
       <c r="H15" t="n">
-        <v>0.9468</v>
+        <v>0.5403</v>
       </c>
       <c r="I15" t="n">
-        <v>0.0008</v>
+        <v>0.0775</v>
       </c>
       <c r="J15" t="n">
-        <v>0.9816</v>
+        <v>0.5802</v>
       </c>
       <c r="K15" t="n">
-        <v>0.0072</v>
+        <v>-0.0873</v>
       </c>
       <c r="L15" t="n">
-        <v>-0.0476</v>
+        <v>0.0843</v>
       </c>
       <c r="M15" t="n">
-        <v>0.1024</v>
+        <v>0.5997</v>
       </c>
       <c r="N15" t="n">
-        <v>0.5743</v>
+        <v>-0.0051</v>
       </c>
       <c r="O15" t="n">
-        <v>0.2967</v>
+        <v>-0.0998</v>
       </c>
     </row>
     <row r="16">
@@ -2279,40 +3886,40 @@
         <v>33</v>
       </c>
       <c r="D16" t="s">
-        <v>78</v>
+        <v>97</v>
       </c>
       <c r="E16" t="s">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="F16" t="n">
-        <v>0.4374</v>
+        <v>0.5333</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1143</v>
+        <v>0.538</v>
       </c>
       <c r="H16" t="n">
-        <v>0.5383</v>
+        <v>0.0384</v>
       </c>
       <c r="I16" t="n">
-        <v>0.05</v>
+        <v>0.4308</v>
       </c>
       <c r="J16" t="n">
-        <v>0.5053</v>
+        <v>-0.0116</v>
       </c>
       <c r="K16" t="n">
-        <v>0.114</v>
+        <v>0.1842</v>
       </c>
       <c r="L16" t="n">
-        <v>0.0374</v>
+        <v>-0.0089</v>
       </c>
       <c r="M16" t="n">
-        <v>0.0057</v>
+        <v>0.0087</v>
       </c>
       <c r="N16" t="n">
-        <v>0.8499</v>
+        <v>0.985</v>
       </c>
       <c r="O16" t="n">
-        <v>-0.0879</v>
+        <v>0.0049</v>
       </c>
     </row>
     <row r="17">
@@ -2326,40 +3933,40 @@
         <v>33</v>
       </c>
       <c r="D17" t="s">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="E17" t="s">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="F17" t="n">
-        <v>0.751</v>
+        <v>0.1624</v>
       </c>
       <c r="G17" t="n">
-        <v>0.7315</v>
+        <v>0.0099</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0539</v>
+        <v>0.8343</v>
       </c>
       <c r="I17" t="n">
-        <v>0.0171</v>
+        <v>0.0318</v>
       </c>
       <c r="J17" t="n">
-        <v>0.034</v>
+        <v>0.9502</v>
       </c>
       <c r="K17" t="n">
-        <v>0.9782</v>
+        <v>-0.0106</v>
       </c>
       <c r="L17" t="n">
-        <v>0.0096</v>
+        <v>0.023</v>
       </c>
       <c r="M17" t="n">
-        <v>0.9041</v>
+        <v>0.9226</v>
       </c>
       <c r="N17" t="n">
-        <v>0.0359</v>
+        <v>0.0242</v>
       </c>
       <c r="O17" t="n">
-        <v>-0.0304</v>
+        <v>0.0006</v>
       </c>
     </row>
     <row r="18">
@@ -2373,40 +3980,40 @@
         <v>33</v>
       </c>
       <c r="D18" t="s">
-        <v>82</v>
+        <v>101</v>
       </c>
       <c r="E18" t="s">
-        <v>83</v>
+        <v>102</v>
       </c>
       <c r="F18" t="n">
-        <v>0.7068</v>
+        <v>0.084</v>
       </c>
       <c r="G18" t="n">
-        <v>0.699</v>
+        <v>-0.0553</v>
       </c>
       <c r="H18" t="n">
-        <v>0.0322</v>
+        <v>0.6522</v>
       </c>
       <c r="I18" t="n">
-        <v>0.4875</v>
+        <v>-0.2248</v>
       </c>
       <c r="J18" t="n">
-        <v>0.0186</v>
+        <v>0.4763</v>
       </c>
       <c r="K18" t="n">
-        <v>0.2636</v>
+        <v>0.3395</v>
       </c>
       <c r="L18" t="n">
-        <v>0.2354</v>
+        <v>-0.1602</v>
       </c>
       <c r="M18" t="n">
-        <v>0.4455</v>
+        <v>0.46</v>
       </c>
       <c r="N18" t="n">
-        <v>-0.0682</v>
+        <v>-0.0775</v>
       </c>
       <c r="O18" t="n">
-        <v>0.3084</v>
+        <v>0.4095</v>
       </c>
     </row>
     <row r="19">
@@ -2420,40 +4027,40 @@
         <v>33</v>
       </c>
       <c r="D19" t="s">
-        <v>84</v>
+        <v>103</v>
       </c>
       <c r="E19" t="s">
-        <v>85</v>
+        <v>104</v>
       </c>
       <c r="F19" t="n">
-        <v>0.7447</v>
+        <v>0.457</v>
       </c>
       <c r="G19" t="n">
-        <v>0.8514</v>
+        <v>0.4122</v>
       </c>
       <c r="H19" t="n">
-        <v>-0.0898</v>
+        <v>0.2784</v>
       </c>
       <c r="I19" t="n">
-        <v>0.6576</v>
+        <v>0.0742</v>
       </c>
       <c r="J19" t="n">
-        <v>-0.1</v>
+        <v>0.011</v>
       </c>
       <c r="K19" t="n">
-        <v>0.2316</v>
+        <v>0.7074</v>
       </c>
       <c r="L19" t="n">
-        <v>0.8331</v>
+        <v>0.1077</v>
       </c>
       <c r="M19" t="n">
-        <v>0.0962</v>
+        <v>0.0242</v>
       </c>
       <c r="N19" t="n">
-        <v>-0.0132</v>
+        <v>0.1279</v>
       </c>
       <c r="O19" t="n">
-        <v>-0.0962</v>
+        <v>0.5716</v>
       </c>
     </row>
     <row r="20">
@@ -2467,40 +4074,40 @@
         <v>33</v>
       </c>
       <c r="D20" t="s">
-        <v>86</v>
+        <v>105</v>
       </c>
       <c r="E20" t="s">
-        <v>87</v>
+        <v>106</v>
       </c>
       <c r="F20" t="n">
-        <v>0.6635</v>
+        <v>0.5764</v>
       </c>
       <c r="G20" t="n">
-        <v>0.5697</v>
+        <v>0.5739</v>
       </c>
       <c r="H20" t="n">
-        <v>0.1665</v>
+        <v>0.0632</v>
       </c>
       <c r="I20" t="n">
-        <v>0.7912</v>
+        <v>0.3645</v>
       </c>
       <c r="J20" t="n">
-        <v>0.1027</v>
+        <v>-0.0905</v>
       </c>
       <c r="K20" t="n">
-        <v>-0.1227</v>
+        <v>0.4005</v>
       </c>
       <c r="L20" t="n">
-        <v>0.6018</v>
+        <v>0.3749</v>
       </c>
       <c r="M20" t="n">
-        <v>-0.0783</v>
+        <v>-0.1211</v>
       </c>
       <c r="N20" t="n">
-        <v>0.1348</v>
+        <v>0.0472</v>
       </c>
       <c r="O20" t="n">
-        <v>0.2814</v>
+        <v>0.4198</v>
       </c>
     </row>
     <row r="21">
@@ -2508,46 +4115,46 @@
         <v>27</v>
       </c>
       <c r="B21" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C21" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D21" t="s">
-        <v>88</v>
+        <v>107</v>
       </c>
       <c r="E21" t="s">
-        <v>89</v>
+        <v>108</v>
       </c>
       <c r="F21" t="n">
-        <v>0.127</v>
+        <v>0.8664</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0121</v>
+        <v>0.8761</v>
       </c>
       <c r="H21" t="n">
-        <v>0.5403</v>
+        <v>-0.0532</v>
       </c>
       <c r="I21" t="n">
-        <v>0.0775</v>
+        <v>0.9364</v>
       </c>
       <c r="J21" t="n">
-        <v>0.5802</v>
+        <v>0.0048</v>
       </c>
       <c r="K21" t="n">
-        <v>-0.0873</v>
+        <v>-0.0159</v>
       </c>
       <c r="L21" t="n">
-        <v>0.0843</v>
+        <v>0.9223</v>
       </c>
       <c r="M21" t="n">
-        <v>0.5997</v>
+        <v>0.0026</v>
       </c>
       <c r="N21" t="n">
-        <v>-0.0051</v>
+        <v>0.011</v>
       </c>
       <c r="O21" t="n">
-        <v>-0.0998</v>
+        <v>-0.0152</v>
       </c>
     </row>
     <row r="22">
@@ -2555,46 +4162,46 @@
         <v>27</v>
       </c>
       <c r="B22" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C22" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D22" t="s">
-        <v>90</v>
+        <v>109</v>
       </c>
       <c r="E22" t="s">
-        <v>91</v>
+        <v>110</v>
       </c>
       <c r="F22" t="n">
-        <v>0.5333</v>
+        <v>0.8652</v>
       </c>
       <c r="G22" t="n">
-        <v>0.538</v>
+        <v>0.8547</v>
       </c>
       <c r="H22" t="n">
-        <v>0.0384</v>
+        <v>-0.0004</v>
       </c>
       <c r="I22" t="n">
-        <v>0.4308</v>
+        <v>0.8603</v>
       </c>
       <c r="J22" t="n">
-        <v>-0.0116</v>
+        <v>0.0385</v>
       </c>
       <c r="K22" t="n">
-        <v>0.1842</v>
+        <v>0.0331</v>
       </c>
       <c r="L22" t="n">
-        <v>-0.0089</v>
+        <v>0.877</v>
       </c>
       <c r="M22" t="n">
-        <v>0.0087</v>
+        <v>0.0381</v>
       </c>
       <c r="N22" t="n">
-        <v>0.985</v>
+        <v>-0.0022</v>
       </c>
       <c r="O22" t="n">
-        <v>0.0049</v>
+        <v>0.0258</v>
       </c>
     </row>
     <row r="23">
@@ -2608,40 +4215,40 @@
         <v>35</v>
       </c>
       <c r="D23" t="s">
-        <v>92</v>
+        <v>111</v>
       </c>
       <c r="E23" t="s">
-        <v>93</v>
+        <v>112</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1624</v>
+        <v>0.7939</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0099</v>
+        <v>-0.0191</v>
       </c>
       <c r="H23" t="n">
-        <v>0.8343</v>
+        <v>0.9534</v>
       </c>
       <c r="I23" t="n">
-        <v>0.0318</v>
+        <v>0.004</v>
       </c>
       <c r="J23" t="n">
-        <v>0.9502</v>
+        <v>0.8941</v>
       </c>
       <c r="K23" t="n">
-        <v>-0.0106</v>
+        <v>0.089</v>
       </c>
       <c r="L23" t="n">
-        <v>0.023</v>
+        <v>0.4068</v>
       </c>
       <c r="M23" t="n">
-        <v>0.9226</v>
+        <v>0.1949</v>
       </c>
       <c r="N23" t="n">
-        <v>0.0242</v>
+        <v>0.2095</v>
       </c>
       <c r="O23" t="n">
-        <v>0.0006</v>
+        <v>0.3533</v>
       </c>
     </row>
     <row r="24">
@@ -2655,40 +4262,40 @@
         <v>35</v>
       </c>
       <c r="D24" t="s">
-        <v>94</v>
+        <v>113</v>
       </c>
       <c r="E24" t="s">
-        <v>95</v>
+        <v>114</v>
       </c>
       <c r="F24" t="n">
-        <v>0.084</v>
+        <v>0.7927</v>
       </c>
       <c r="G24" t="n">
-        <v>-0.0553</v>
+        <v>0.313</v>
       </c>
       <c r="H24" t="n">
-        <v>0.6522</v>
+        <v>0.5386</v>
       </c>
       <c r="I24" t="n">
-        <v>-0.2248</v>
+        <v>0.4627</v>
       </c>
       <c r="J24" t="n">
-        <v>0.4763</v>
+        <v>0.4513</v>
       </c>
       <c r="K24" t="n">
-        <v>0.3395</v>
+        <v>-0.0542</v>
       </c>
       <c r="L24" t="n">
-        <v>-0.1602</v>
+        <v>0.9021</v>
       </c>
       <c r="M24" t="n">
-        <v>0.46</v>
+        <v>-0.0081</v>
       </c>
       <c r="N24" t="n">
-        <v>-0.0775</v>
+        <v>-0.0142</v>
       </c>
       <c r="O24" t="n">
-        <v>0.4095</v>
+        <v>-0.0032</v>
       </c>
     </row>
     <row r="25">
@@ -2702,40 +4309,40 @@
         <v>35</v>
       </c>
       <c r="D25" t="s">
-        <v>96</v>
+        <v>115</v>
       </c>
       <c r="E25" t="s">
-        <v>97</v>
+        <v>116</v>
       </c>
       <c r="F25" t="n">
-        <v>0.457</v>
+        <v>0.8795</v>
       </c>
       <c r="G25" t="n">
-        <v>0.4122</v>
+        <v>1.0336</v>
       </c>
       <c r="H25" t="n">
-        <v>0.2784</v>
+        <v>-0.0516</v>
       </c>
       <c r="I25" t="n">
-        <v>0.0742</v>
+        <v>0.9369</v>
       </c>
       <c r="J25" t="n">
-        <v>0.011</v>
+        <v>-0.0741</v>
       </c>
       <c r="K25" t="n">
-        <v>0.7074</v>
+        <v>0.0876</v>
       </c>
       <c r="L25" t="n">
-        <v>0.1077</v>
+        <v>0.2557</v>
       </c>
       <c r="M25" t="n">
-        <v>0.0242</v>
+        <v>0.3577</v>
       </c>
       <c r="N25" t="n">
-        <v>0.1279</v>
+        <v>0.3885</v>
       </c>
       <c r="O25" t="n">
-        <v>0.5716</v>
+        <v>-0.2096</v>
       </c>
     </row>
     <row r="26">
@@ -2749,40 +4356,40 @@
         <v>35</v>
       </c>
       <c r="D26" t="s">
-        <v>98</v>
+        <v>117</v>
       </c>
       <c r="E26" t="s">
-        <v>99</v>
+        <v>118</v>
       </c>
       <c r="F26" t="n">
-        <v>0.5764</v>
+        <v>0.8437</v>
       </c>
       <c r="G26" t="n">
-        <v>0.5739</v>
+        <v>0.5822</v>
       </c>
       <c r="H26" t="n">
-        <v>0.0632</v>
+        <v>0.3011</v>
       </c>
       <c r="I26" t="n">
-        <v>0.3645</v>
+        <v>0.7005</v>
       </c>
       <c r="J26" t="n">
-        <v>-0.0905</v>
+        <v>0.193</v>
       </c>
       <c r="K26" t="n">
-        <v>0.4005</v>
+        <v>-0.0083</v>
       </c>
       <c r="L26" t="n">
-        <v>0.3749</v>
+        <v>-0.0107</v>
       </c>
       <c r="M26" t="n">
-        <v>-0.1211</v>
+        <v>0.9432</v>
       </c>
       <c r="N26" t="n">
-        <v>0.0472</v>
+        <v>-0.0119</v>
       </c>
       <c r="O26" t="n">
-        <v>0.4198</v>
+        <v>0.0146</v>
       </c>
     </row>
     <row r="27">
@@ -2796,322 +4403,3753 @@
         <v>35</v>
       </c>
       <c r="D27" t="s">
-        <v>100</v>
+        <v>119</v>
       </c>
       <c r="E27" t="s">
-        <v>101</v>
+        <v>120</v>
       </c>
       <c r="F27" t="n">
-        <v>0.8664</v>
+        <v>0.7502</v>
       </c>
       <c r="G27" t="n">
-        <v>0.8761</v>
+        <v>0.5281</v>
       </c>
       <c r="H27" t="n">
-        <v>-0.0532</v>
+        <v>0.2637</v>
       </c>
       <c r="I27" t="n">
-        <v>0.9364</v>
+        <v>0.0278</v>
       </c>
       <c r="J27" t="n">
-        <v>0.0048</v>
+        <v>0.0355</v>
       </c>
       <c r="K27" t="n">
-        <v>-0.0159</v>
+        <v>0.8412</v>
       </c>
       <c r="L27" t="n">
-        <v>0.9223</v>
+        <v>-0.0174</v>
       </c>
       <c r="M27" t="n">
-        <v>0.0026</v>
+        <v>-0.0143</v>
       </c>
       <c r="N27" t="n">
-        <v>0.011</v>
+        <v>0.8817</v>
       </c>
       <c r="O27" t="n">
-        <v>-0.0152</v>
+        <v>0.0222</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="B28" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C28" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D28" t="s">
-        <v>102</v>
+        <v>121</v>
       </c>
       <c r="E28" t="s">
-        <v>103</v>
+        <v>122</v>
       </c>
       <c r="F28" t="n">
-        <v>0.8652</v>
+        <v>0.8291</v>
       </c>
       <c r="G28" t="n">
-        <v>0.8547</v>
+        <v>0.8409</v>
       </c>
       <c r="H28" t="n">
+        <v>-0.0051</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0.0008</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0.0027</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0.9864</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>-0.0013</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0.9987</v>
+      </c>
+      <c r="O28" t="n">
         <v>-0.0004</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0.8603</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0.0385</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0.0331</v>
-      </c>
-      <c r="L28" t="n">
-        <v>0.877</v>
-      </c>
-      <c r="M28" t="n">
-        <v>0.0381</v>
-      </c>
-      <c r="N28" t="n">
-        <v>-0.0022</v>
-      </c>
-      <c r="O28" t="n">
-        <v>0.0258</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="B29" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C29" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D29" t="s">
-        <v>104</v>
+        <v>123</v>
       </c>
       <c r="E29" t="s">
-        <v>105</v>
+        <v>124</v>
       </c>
       <c r="F29" t="n">
-        <v>0.7939</v>
+        <v>0.8333</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.0191</v>
+        <v>0.4903</v>
       </c>
       <c r="H29" t="n">
-        <v>0.9534</v>
+        <v>0.3729</v>
       </c>
       <c r="I29" t="n">
-        <v>0.004</v>
+        <v>0.0083</v>
       </c>
       <c r="J29" t="n">
-        <v>0.8941</v>
+        <v>0.9798</v>
       </c>
       <c r="K29" t="n">
-        <v>0.089</v>
+        <v>0.016</v>
       </c>
       <c r="L29" t="n">
-        <v>0.4068</v>
+        <v>0.0025</v>
       </c>
       <c r="M29" t="n">
-        <v>0.1949</v>
+        <v>0.9929</v>
       </c>
       <c r="N29" t="n">
-        <v>0.2095</v>
+        <v>0.0019</v>
       </c>
       <c r="O29" t="n">
-        <v>0.3533</v>
+        <v>0.0016</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="B30" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C30" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D30" t="s">
-        <v>106</v>
+        <v>125</v>
       </c>
       <c r="E30" t="s">
-        <v>107</v>
+        <v>126</v>
       </c>
       <c r="F30" t="n">
-        <v>0.7927</v>
+        <v>0.7297</v>
       </c>
       <c r="G30" t="n">
-        <v>0.313</v>
+        <v>0.7199</v>
       </c>
       <c r="H30" t="n">
-        <v>0.5386</v>
+        <v>0.0178</v>
       </c>
       <c r="I30" t="n">
-        <v>0.4627</v>
+        <v>0.6866</v>
       </c>
       <c r="J30" t="n">
-        <v>0.4513</v>
+        <v>0.0623</v>
       </c>
       <c r="K30" t="n">
-        <v>-0.0542</v>
+        <v>-0.0015</v>
       </c>
       <c r="L30" t="n">
-        <v>0.9021</v>
+        <v>0.5354</v>
       </c>
       <c r="M30" t="n">
-        <v>-0.0081</v>
+        <v>0.1269</v>
       </c>
       <c r="N30" t="n">
-        <v>-0.0142</v>
+        <v>0.0447</v>
       </c>
       <c r="O30" t="n">
-        <v>-0.0032</v>
+        <v>0.0568</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="B31" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C31" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D31" t="s">
-        <v>108</v>
+        <v>127</v>
       </c>
       <c r="E31" t="s">
-        <v>109</v>
+        <v>128</v>
       </c>
       <c r="F31" t="n">
-        <v>0.8795</v>
+        <v>0.753</v>
       </c>
       <c r="G31" t="n">
-        <v>1.0336</v>
+        <v>0.7952</v>
       </c>
       <c r="H31" t="n">
-        <v>-0.0516</v>
+        <v>-0.0356</v>
       </c>
       <c r="I31" t="n">
-        <v>0.9369</v>
+        <v>0.8053</v>
       </c>
       <c r="J31" t="n">
-        <v>-0.0741</v>
+        <v>-0.0634</v>
       </c>
       <c r="K31" t="n">
-        <v>0.0876</v>
+        <v>0.0331</v>
       </c>
       <c r="L31" t="n">
-        <v>0.2557</v>
+        <v>0.8366</v>
       </c>
       <c r="M31" t="n">
-        <v>0.3577</v>
+        <v>-0.0254</v>
       </c>
       <c r="N31" t="n">
-        <v>0.3885</v>
+        <v>-0.0034</v>
       </c>
       <c r="O31" t="n">
-        <v>-0.2096</v>
+        <v>-0.007</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="B32" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C32" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D32" t="s">
-        <v>110</v>
+        <v>129</v>
       </c>
       <c r="E32" t="s">
-        <v>111</v>
+        <v>130</v>
       </c>
       <c r="F32" t="n">
-        <v>0.8437</v>
+        <v>0.699</v>
       </c>
       <c r="G32" t="n">
-        <v>0.5822</v>
+        <v>0.0093</v>
       </c>
       <c r="H32" t="n">
-        <v>0.3011</v>
+        <v>0.7731</v>
       </c>
       <c r="I32" t="n">
-        <v>0.7005</v>
+        <v>0.4866</v>
       </c>
       <c r="J32" t="n">
-        <v>0.193</v>
+        <v>0.2439</v>
       </c>
       <c r="K32" t="n">
-        <v>-0.0083</v>
+        <v>-0.0082</v>
       </c>
       <c r="L32" t="n">
-        <v>-0.0107</v>
+        <v>0.0003</v>
       </c>
       <c r="M32" t="n">
-        <v>0.9432</v>
+        <v>-0.0025</v>
       </c>
       <c r="N32" t="n">
-        <v>-0.0119</v>
+        <v>-0.0002</v>
       </c>
       <c r="O32" t="n">
-        <v>0.0146</v>
+        <v>0.8295</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="B33" t="s">
+        <v>39</v>
+      </c>
+      <c r="C33" t="s">
+        <v>40</v>
+      </c>
+      <c r="D33" t="s">
+        <v>131</v>
+      </c>
+      <c r="E33" t="s">
+        <v>132</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.5394</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.033</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0.825</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0.6757</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-0.2084</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0.111</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0.0114</v>
+      </c>
+      <c r="M33" t="n">
+        <v>-0.0077</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0.8388</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0.0409</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
         <v>36</v>
       </c>
-      <c r="C33" t="s">
-        <v>37</v>
-      </c>
-      <c r="D33" t="s">
+      <c r="B34" t="s">
+        <v>39</v>
+      </c>
+      <c r="C34" t="s">
+        <v>40</v>
+      </c>
+      <c r="D34" t="s">
+        <v>133</v>
+      </c>
+      <c r="E34" t="s">
+        <v>134</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0.8468</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.7647</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0.7289</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0.2752</v>
+      </c>
+      <c r="K34" t="n">
+        <v>-0.1038</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0.8855</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0.0376</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0.1018</v>
+      </c>
+      <c r="O34" t="n">
+        <v>-0.1309</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>36</v>
+      </c>
+      <c r="B35" t="s">
+        <v>39</v>
+      </c>
+      <c r="C35" t="s">
+        <v>40</v>
+      </c>
+      <c r="D35" t="s">
+        <v>135</v>
+      </c>
+      <c r="E35" t="s">
+        <v>136</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0.6373</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.5674</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0.1005</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0.4558</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-0.0118</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0.284</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0.0072</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0.7837</v>
+      </c>
+      <c r="N35" t="n">
+        <v>-0.0139</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0.0255</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>36</v>
+      </c>
+      <c r="B36" t="s">
+        <v>39</v>
+      </c>
+      <c r="C36" t="s">
+        <v>40</v>
+      </c>
+      <c r="D36" t="s">
+        <v>137</v>
+      </c>
+      <c r="E36" t="s">
+        <v>138</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.626</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.6023</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0.0415</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0.0304</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0.1109</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0.7487</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0.0806</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0.1294</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0.1313</v>
+      </c>
+      <c r="O36" t="n">
+        <v>0.6376</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>39</v>
+      </c>
+      <c r="C37" t="s">
+        <v>40</v>
+      </c>
+      <c r="D37" t="s">
+        <v>139</v>
+      </c>
+      <c r="E37" t="s">
+        <v>140</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0.833</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.9382</v>
+      </c>
+      <c r="H37" t="n">
+        <v>-0.1282</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0.0626</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0.8964</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0.0907</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0.8276</v>
+      </c>
+      <c r="M37" t="n">
+        <v>-0.016</v>
+      </c>
+      <c r="N37" t="n">
+        <v>-0.0858</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0.2123</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>39</v>
+      </c>
+      <c r="C38" t="s">
+        <v>40</v>
+      </c>
+      <c r="D38" t="s">
+        <v>141</v>
+      </c>
+      <c r="E38" t="s">
+        <v>142</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0.7996</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.7265</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0.1157</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0.6538</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0.0971</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0.1163</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0.508</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0.2367</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0.1099</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0.0372</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>36</v>
+      </c>
+      <c r="B39" t="s">
+        <v>41</v>
+      </c>
+      <c r="C39" t="s">
+        <v>42</v>
+      </c>
+      <c r="D39" t="s">
+        <v>143</v>
+      </c>
+      <c r="E39" t="s">
+        <v>144</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0.0929</v>
+      </c>
+      <c r="G39" t="n">
+        <v>-0.0506</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0.6102</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0.6363</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-0.0933</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0.0965</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0.0121</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0.9973</v>
+      </c>
+      <c r="N39" t="n">
+        <v>-0.0086</v>
+      </c>
+      <c r="O39" t="n">
+        <v>0.0096</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>36</v>
+      </c>
+      <c r="B40" t="s">
+        <v>41</v>
+      </c>
+      <c r="C40" t="s">
+        <v>42</v>
+      </c>
+      <c r="D40" t="s">
+        <v>145</v>
+      </c>
+      <c r="E40" t="s">
+        <v>146</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0.4398</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.3933</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0.2144</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0.1967</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0.3759</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0.0438</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0.4125</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0.1931</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0.1334</v>
+      </c>
+      <c r="O40" t="n">
+        <v>-0.0305</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>36</v>
+      </c>
+      <c r="B41" t="s">
+        <v>41</v>
+      </c>
+      <c r="C41" t="s">
+        <v>42</v>
+      </c>
+      <c r="D41" t="s">
+        <v>147</v>
+      </c>
+      <c r="E41" t="s">
+        <v>148</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0.1217</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.0434</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0.3626</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0.3599</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0.0392</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="L41" t="n">
+        <v>-0.0061</v>
+      </c>
+      <c r="M41" t="n">
+        <v>-0.0127</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0.9967</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0.0139</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>36</v>
+      </c>
+      <c r="B42" t="s">
+        <v>41</v>
+      </c>
+      <c r="C42" t="s">
+        <v>42</v>
+      </c>
+      <c r="D42" t="s">
+        <v>149</v>
+      </c>
+      <c r="E42" t="s">
+        <v>150</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0.6421</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.6209</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0.1208</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0.0813</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0.6906</v>
+      </c>
+      <c r="K42" t="n">
+        <v>-0.0348</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0.6143</v>
+      </c>
+      <c r="M42" t="n">
+        <v>-0.0897</v>
+      </c>
+      <c r="N42" t="n">
+        <v>-0.0692</v>
+      </c>
+      <c r="O42" t="n">
+        <v>0.3343</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>36</v>
+      </c>
+      <c r="B43" t="s">
+        <v>41</v>
+      </c>
+      <c r="C43" t="s">
+        <v>42</v>
+      </c>
+      <c r="D43" t="s">
+        <v>151</v>
+      </c>
+      <c r="E43" t="s">
+        <v>152</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0.2354</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.1313</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0.6983</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0.6791</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0.1932</v>
+      </c>
+      <c r="K43" t="n">
+        <v>-0.0572</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0.0537</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0.1441</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0.1868</v>
+      </c>
+      <c r="O43" t="n">
+        <v>0.6003</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>36</v>
+      </c>
+      <c r="B44" t="s">
+        <v>41</v>
+      </c>
+      <c r="C44" t="s">
+        <v>42</v>
+      </c>
+      <c r="D44" t="s">
+        <v>153</v>
+      </c>
+      <c r="E44" t="s">
+        <v>154</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0.7486</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.7847</v>
+      </c>
+      <c r="H44" t="n">
+        <v>-0.0508</v>
+      </c>
+      <c r="I44" t="n">
+        <v>-0.0759</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0.7016</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0.0904</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0.7802</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0.034</v>
+      </c>
+      <c r="N44" t="n">
+        <v>-0.0057</v>
+      </c>
+      <c r="O44" t="n">
+        <v>-0.071</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>36</v>
+      </c>
+      <c r="B45" t="s">
+        <v>41</v>
+      </c>
+      <c r="C45" t="s">
+        <v>42</v>
+      </c>
+      <c r="D45" t="s">
+        <v>155</v>
+      </c>
+      <c r="E45" t="s">
+        <v>156</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0.337</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0.3516</v>
+      </c>
+      <c r="H45" t="n">
+        <v>-0.0424</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0.0058</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0.0088</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0.9592</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0.3926</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0.0995</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0.0593</v>
+      </c>
+      <c r="O45" t="n">
+        <v>-0.1967</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>36</v>
+      </c>
+      <c r="B46" t="s">
+        <v>41</v>
+      </c>
+      <c r="C46" t="s">
+        <v>42</v>
+      </c>
+      <c r="D46" t="s">
+        <v>157</v>
+      </c>
+      <c r="E46" t="s">
+        <v>158</v>
+      </c>
+      <c r="F46" t="n">
+        <v>-0.146</v>
+      </c>
+      <c r="G46" t="n">
+        <v>-0.3122</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0.4961</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0.509</v>
+      </c>
+      <c r="J46" t="n">
+        <v>-0.2802</v>
+      </c>
+      <c r="K46" t="n">
+        <v>-0.0421</v>
+      </c>
+      <c r="L46" t="n">
+        <v>-0.3217</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0.278</v>
+      </c>
+      <c r="N46" t="n">
+        <v>-0.0541</v>
+      </c>
+      <c r="O46" t="n">
+        <v>0.3307</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>36</v>
+      </c>
+      <c r="B47" t="s">
+        <v>44</v>
+      </c>
+      <c r="C47" t="s">
+        <v>45</v>
+      </c>
+      <c r="D47" t="s">
+        <v>159</v>
+      </c>
+      <c r="E47" t="s">
+        <v>160</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0.6139</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0.5708</v>
+      </c>
+      <c r="H47" t="n">
+        <v>-0.0837</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0.0937</v>
+      </c>
+      <c r="J47" t="n">
+        <v>0.5465</v>
+      </c>
+      <c r="K47" t="n">
+        <v>-0.1132</v>
+      </c>
+      <c r="L47" t="n">
+        <v>-0.0072</v>
+      </c>
+      <c r="M47" t="n">
+        <v>0.0075</v>
+      </c>
+      <c r="N47" t="n">
+        <v>1.0024</v>
+      </c>
+      <c r="O47" t="n">
+        <v>0.0072</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>36</v>
+      </c>
+      <c r="B48" t="s">
+        <v>44</v>
+      </c>
+      <c r="C48" t="s">
+        <v>45</v>
+      </c>
+      <c r="D48" t="s">
+        <v>161</v>
+      </c>
+      <c r="E48" t="s">
+        <v>162</v>
+      </c>
+      <c r="F48" t="n">
+        <v>-0.6076</v>
+      </c>
+      <c r="G48" t="n">
+        <v>-0.3867</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0.3499</v>
+      </c>
+      <c r="I48" t="n">
+        <v>-0.1777</v>
+      </c>
+      <c r="J48" t="n">
+        <v>-0.2604</v>
+      </c>
+      <c r="K48" t="n">
+        <v>0.3537</v>
+      </c>
+      <c r="L48" t="n">
+        <v>-0.143</v>
+      </c>
+      <c r="M48" t="n">
+        <v>0.3918</v>
+      </c>
+      <c r="N48" t="n">
+        <v>-0.134</v>
+      </c>
+      <c r="O48" t="n">
+        <v>-0.176</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>36</v>
+      </c>
+      <c r="B49" t="s">
+        <v>44</v>
+      </c>
+      <c r="C49" t="s">
+        <v>45</v>
+      </c>
+      <c r="D49" t="s">
+        <v>163</v>
+      </c>
+      <c r="E49" t="s">
+        <v>164</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0.6986</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0.728</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0.0091</v>
+      </c>
+      <c r="I49" t="n">
+        <v>-0.0218</v>
+      </c>
+      <c r="J49" t="n">
+        <v>0.9018</v>
+      </c>
+      <c r="K49" t="n">
+        <v>-0.0095</v>
+      </c>
+      <c r="L49" t="n">
+        <v>0.3065</v>
+      </c>
+      <c r="M49" t="n">
+        <v>-0.034</v>
+      </c>
+      <c r="N49" t="n">
+        <v>0.3073</v>
+      </c>
+      <c r="O49" t="n">
+        <v>0.2589</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>36</v>
+      </c>
+      <c r="B50" t="s">
+        <v>44</v>
+      </c>
+      <c r="C50" t="s">
+        <v>45</v>
+      </c>
+      <c r="D50" t="s">
+        <v>165</v>
+      </c>
+      <c r="E50" t="s">
+        <v>166</v>
+      </c>
+      <c r="F50" t="n">
+        <v>-0.4958</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0.0454</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0.8691</v>
+      </c>
+      <c r="I50" t="n">
+        <v>0.0279</v>
+      </c>
+      <c r="J50" t="n">
+        <v>-0.0252</v>
+      </c>
+      <c r="K50" t="n">
+        <v>0.8739</v>
+      </c>
+      <c r="L50" t="n">
+        <v>0.0428</v>
+      </c>
+      <c r="M50" t="n">
+        <v>0.9015</v>
+      </c>
+      <c r="N50" t="n">
+        <v>0.0082</v>
+      </c>
+      <c r="O50" t="n">
+        <v>0.0185</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>36</v>
+      </c>
+      <c r="B51" t="s">
+        <v>44</v>
+      </c>
+      <c r="C51" t="s">
+        <v>45</v>
+      </c>
+      <c r="D51" t="s">
+        <v>167</v>
+      </c>
+      <c r="E51" t="s">
+        <v>168</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0.5803</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0.7137</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0.1591</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0.6591</v>
+      </c>
+      <c r="J51" t="n">
+        <v>0.0789</v>
+      </c>
+      <c r="K51" t="n">
+        <v>0.1773</v>
+      </c>
+      <c r="L51" t="n">
+        <v>0.5735</v>
+      </c>
+      <c r="M51" t="n">
+        <v>0.1244</v>
+      </c>
+      <c r="N51" t="n">
+        <v>-0.0461</v>
+      </c>
+      <c r="O51" t="n">
+        <v>0.2347</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>36</v>
+      </c>
+      <c r="B52" t="s">
+        <v>44</v>
+      </c>
+      <c r="C52" t="s">
+        <v>45</v>
+      </c>
+      <c r="D52" t="s">
+        <v>169</v>
+      </c>
+      <c r="E52" t="s">
+        <v>170</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0.776</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0.6457</v>
+      </c>
+      <c r="H52" t="n">
+        <v>-0.2136</v>
+      </c>
+      <c r="I52" t="n">
+        <v>0.708</v>
+      </c>
+      <c r="J52" t="n">
+        <v>-0.0122</v>
+      </c>
+      <c r="K52" t="n">
+        <v>-0.1703</v>
+      </c>
+      <c r="L52" t="n">
+        <v>0.7894</v>
+      </c>
+      <c r="M52" t="n">
+        <v>-0.0965</v>
+      </c>
+      <c r="N52" t="n">
+        <v>0.0962</v>
+      </c>
+      <c r="O52" t="n">
+        <v>-0.138</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>36</v>
+      </c>
+      <c r="B53" t="s">
+        <v>44</v>
+      </c>
+      <c r="C53" t="s">
+        <v>45</v>
+      </c>
+      <c r="D53" t="s">
+        <v>171</v>
+      </c>
+      <c r="E53" t="s">
+        <v>172</v>
+      </c>
+      <c r="F53" t="n">
+        <v>-0.6279</v>
+      </c>
+      <c r="G53" t="n">
+        <v>-0.3164</v>
+      </c>
+      <c r="H53" t="n">
+        <v>0.4918</v>
+      </c>
+      <c r="I53" t="n">
+        <v>-0.2389</v>
+      </c>
+      <c r="J53" t="n">
+        <v>-0.1384</v>
+      </c>
+      <c r="K53" t="n">
+        <v>0.4635</v>
+      </c>
+      <c r="L53" t="n">
+        <v>-0.2923</v>
+      </c>
+      <c r="M53" t="n">
+        <v>0.4419</v>
+      </c>
+      <c r="N53" t="n">
+        <v>-0.1056</v>
+      </c>
+      <c r="O53" t="n">
+        <v>0.0163</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>36</v>
+      </c>
+      <c r="B54" t="s">
+        <v>44</v>
+      </c>
+      <c r="C54" t="s">
+        <v>45</v>
+      </c>
+      <c r="D54" t="s">
+        <v>173</v>
+      </c>
+      <c r="E54" t="s">
+        <v>174</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0.7663</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0.7432</v>
+      </c>
+      <c r="H54" t="n">
+        <v>-0.0634</v>
+      </c>
+      <c r="I54" t="n">
+        <v>0.7902</v>
+      </c>
+      <c r="J54" t="n">
+        <v>-0.0007</v>
+      </c>
+      <c r="K54" t="n">
+        <v>-0.0197</v>
+      </c>
+      <c r="L54" t="n">
+        <v>0.6025</v>
+      </c>
+      <c r="M54" t="n">
+        <v>-0.0505</v>
+      </c>
+      <c r="N54" t="n">
+        <v>0.0994</v>
+      </c>
+      <c r="O54" t="n">
+        <v>0.1331</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>36</v>
+      </c>
+      <c r="B55" t="s">
+        <v>44</v>
+      </c>
+      <c r="C55" t="s">
+        <v>45</v>
+      </c>
+      <c r="D55" t="s">
+        <v>175</v>
+      </c>
+      <c r="E55" t="s">
+        <v>176</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0.8226</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0.8004</v>
+      </c>
+      <c r="H55" t="n">
+        <v>-0.0662</v>
+      </c>
+      <c r="I55" t="n">
+        <v>0.8363</v>
+      </c>
+      <c r="J55" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="K55" t="n">
+        <v>-0.0162</v>
+      </c>
+      <c r="L55" t="n">
+        <v>0.8969</v>
+      </c>
+      <c r="M55" t="n">
+        <v>0.0064</v>
+      </c>
+      <c r="N55" t="n">
+        <v>-0.0452</v>
+      </c>
+      <c r="O55" t="n">
+        <v>0.0381</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>36</v>
+      </c>
+      <c r="B56" t="s">
+        <v>44</v>
+      </c>
+      <c r="C56" t="s">
+        <v>45</v>
+      </c>
+      <c r="D56" t="s">
+        <v>177</v>
+      </c>
+      <c r="E56" t="s">
+        <v>178</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0.6068</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0.7419</v>
+      </c>
+      <c r="H56" t="n">
+        <v>0.1561</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0.4228</v>
+      </c>
+      <c r="J56" t="n">
+        <v>0.3539</v>
+      </c>
+      <c r="K56" t="n">
+        <v>0.1388</v>
+      </c>
+      <c r="L56" t="n">
+        <v>0.0084</v>
+      </c>
+      <c r="M56" t="n">
+        <v>-0.025</v>
+      </c>
+      <c r="N56" t="n">
+        <v>0.0324</v>
+      </c>
+      <c r="O56" t="n">
+        <v>0.8957</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>36</v>
+      </c>
+      <c r="B57" t="s">
+        <v>44</v>
+      </c>
+      <c r="C57" t="s">
+        <v>45</v>
+      </c>
+      <c r="D57" t="s">
+        <v>179</v>
+      </c>
+      <c r="E57" t="s">
+        <v>180</v>
+      </c>
+      <c r="F57" t="n">
+        <v>-0.5623</v>
+      </c>
+      <c r="G57" t="n">
+        <v>-0.2658</v>
+      </c>
+      <c r="H57" t="n">
+        <v>0.4647</v>
+      </c>
+      <c r="I57" t="n">
+        <v>-0.3428</v>
+      </c>
+      <c r="J57" t="n">
+        <v>0.0324</v>
+      </c>
+      <c r="K57" t="n">
+        <v>0.4272</v>
+      </c>
+      <c r="L57" t="n">
+        <v>-0.1461</v>
+      </c>
+      <c r="M57" t="n">
+        <v>0.5184</v>
+      </c>
+      <c r="N57" t="n">
+        <v>0.0576</v>
+      </c>
+      <c r="O57" t="n">
+        <v>-0.1836</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>46</v>
+      </c>
+      <c r="B58" t="s">
+        <v>47</v>
+      </c>
+      <c r="C58" t="s">
+        <v>48</v>
+      </c>
+      <c r="D58" t="s">
+        <v>181</v>
+      </c>
+      <c r="E58" t="s">
+        <v>160</v>
+      </c>
+      <c r="F58" t="n">
+        <v>0.6688</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0.6465</v>
+      </c>
+      <c r="H58" t="n">
+        <v>0.0535</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0.4819</v>
+      </c>
+      <c r="J58" t="n">
+        <v>0.1619</v>
+      </c>
+      <c r="K58" t="n">
+        <v>0.1149</v>
+      </c>
+      <c r="L58" t="n">
+        <v>-0.012</v>
+      </c>
+      <c r="M58" t="n">
+        <v>-0.0146</v>
+      </c>
+      <c r="N58" t="n">
+        <v>0.8054</v>
+      </c>
+      <c r="O58" t="n">
+        <v>0.0042</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>46</v>
+      </c>
+      <c r="B59" t="s">
+        <v>47</v>
+      </c>
+      <c r="C59" t="s">
+        <v>48</v>
+      </c>
+      <c r="D59" t="s">
+        <v>182</v>
+      </c>
+      <c r="E59" t="s">
+        <v>162</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0.7325</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0.852</v>
+      </c>
+      <c r="H59" t="n">
+        <v>-0.0826</v>
+      </c>
+      <c r="I59" t="n">
+        <v>0.8511</v>
+      </c>
+      <c r="J59" t="n">
+        <v>0.0029</v>
+      </c>
+      <c r="K59" t="n">
+        <v>0.0077</v>
+      </c>
+      <c r="L59" t="n">
+        <v>0.6879</v>
+      </c>
+      <c r="M59" t="n">
+        <v>-0.0758</v>
+      </c>
+      <c r="N59" t="n">
+        <v>0.1754</v>
+      </c>
+      <c r="O59" t="n">
+        <v>0.0391</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>46</v>
+      </c>
+      <c r="B60" t="s">
+        <v>47</v>
+      </c>
+      <c r="C60" t="s">
+        <v>48</v>
+      </c>
+      <c r="D60" t="s">
+        <v>183</v>
+      </c>
+      <c r="E60" t="s">
+        <v>164</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0.6886</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0.7277</v>
+      </c>
+      <c r="H60" t="n">
+        <v>-0.01</v>
+      </c>
+      <c r="I60" t="n">
+        <v>0.5937</v>
+      </c>
+      <c r="J60" t="n">
+        <v>0.108</v>
+      </c>
+      <c r="K60" t="n">
+        <v>0.079</v>
+      </c>
+      <c r="L60" t="n">
+        <v>0.7908</v>
+      </c>
+      <c r="M60" t="n">
+        <v>0.0046</v>
+      </c>
+      <c r="N60" t="n">
+        <v>-0.0517</v>
+      </c>
+      <c r="O60" t="n">
+        <v>-0.0031</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>46</v>
+      </c>
+      <c r="B61" t="s">
+        <v>47</v>
+      </c>
+      <c r="C61" t="s">
+        <v>48</v>
+      </c>
+      <c r="D61" t="s">
+        <v>184</v>
+      </c>
+      <c r="E61" t="s">
+        <v>166</v>
+      </c>
+      <c r="F61" t="n">
+        <v>0.6495</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0.423</v>
+      </c>
+      <c r="H61" t="n">
+        <v>0.3447</v>
+      </c>
+      <c r="I61" t="n">
+        <v>0.0976</v>
+      </c>
+      <c r="J61" t="n">
+        <v>-0.0623</v>
+      </c>
+      <c r="K61" t="n">
+        <v>0.9041</v>
+      </c>
+      <c r="L61" t="n">
+        <v>0.2613</v>
+      </c>
+      <c r="M61" t="n">
+        <v>0.399</v>
+      </c>
+      <c r="N61" t="n">
+        <v>0.1155</v>
+      </c>
+      <c r="O61" t="n">
+        <v>0.4635</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>46</v>
+      </c>
+      <c r="B62" t="s">
+        <v>47</v>
+      </c>
+      <c r="C62" t="s">
+        <v>48</v>
+      </c>
+      <c r="D62" t="s">
+        <v>185</v>
+      </c>
+      <c r="E62" t="s">
+        <v>168</v>
+      </c>
+      <c r="F62" t="n">
+        <v>0.5772</v>
+      </c>
+      <c r="G62" t="n">
+        <v>-0.0069</v>
+      </c>
+      <c r="H62" t="n">
+        <v>1.0071</v>
+      </c>
+      <c r="I62" t="n">
+        <v>-0.1537</v>
+      </c>
+      <c r="J62" t="n">
+        <v>0.4073</v>
+      </c>
+      <c r="K62" t="n">
+        <v>0.5333</v>
+      </c>
+      <c r="L62" t="n">
+        <v>-0.0523</v>
+      </c>
+      <c r="M62" t="n">
+        <v>0.8765</v>
+      </c>
+      <c r="N62" t="n">
+        <v>0.0145</v>
+      </c>
+      <c r="O62" t="n">
+        <v>0.0324</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>46</v>
+      </c>
+      <c r="B63" t="s">
+        <v>47</v>
+      </c>
+      <c r="C63" t="s">
+        <v>48</v>
+      </c>
+      <c r="D63" t="s">
+        <v>186</v>
+      </c>
+      <c r="E63" t="s">
+        <v>170</v>
+      </c>
+      <c r="F63" t="n">
+        <v>0.688</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0.5015</v>
+      </c>
+      <c r="H63" t="n">
+        <v>0.2823</v>
+      </c>
+      <c r="I63" t="n">
+        <v>0.0718</v>
+      </c>
+      <c r="J63" t="n">
+        <v>0.9678</v>
+      </c>
+      <c r="K63" t="n">
+        <v>-0.0228</v>
+      </c>
+      <c r="L63" t="n">
+        <v>0.3003</v>
+      </c>
+      <c r="M63" t="n">
+        <v>0.4524</v>
+      </c>
+      <c r="N63" t="n">
+        <v>0.1521</v>
+      </c>
+      <c r="O63" t="n">
+        <v>-0.376</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>46</v>
+      </c>
+      <c r="B64" t="s">
+        <v>49</v>
+      </c>
+      <c r="C64" t="s">
+        <v>50</v>
+      </c>
+      <c r="D64" t="s">
+        <v>187</v>
+      </c>
+      <c r="E64" t="s">
+        <v>70</v>
+      </c>
+      <c r="F64" t="n">
+        <v>0.6659</v>
+      </c>
+      <c r="G64" t="n">
+        <v>0.6669</v>
+      </c>
+      <c r="H64" t="n">
+        <v>0.0315</v>
+      </c>
+      <c r="I64" t="n">
+        <v>0.5588</v>
+      </c>
+      <c r="J64" t="n">
+        <v>0.0869</v>
+      </c>
+      <c r="K64" t="n">
+        <v>-0.1366</v>
+      </c>
+      <c r="L64" t="n">
+        <v>0.5929</v>
+      </c>
+      <c r="M64" t="n">
+        <v>0.0825</v>
+      </c>
+      <c r="N64" t="n">
+        <v>0.0322</v>
+      </c>
+      <c r="O64" t="n">
+        <v>-0.0574</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>46</v>
+      </c>
+      <c r="B65" t="s">
+        <v>49</v>
+      </c>
+      <c r="C65" t="s">
+        <v>50</v>
+      </c>
+      <c r="D65" t="s">
+        <v>188</v>
+      </c>
+      <c r="E65" t="s">
+        <v>72</v>
+      </c>
+      <c r="F65" t="n">
+        <v>0.4679</v>
+      </c>
+      <c r="G65" t="n">
+        <v>0.4823</v>
+      </c>
+      <c r="H65" t="n">
+        <v>0.0017</v>
+      </c>
+      <c r="I65" t="n">
+        <v>0.2808</v>
+      </c>
+      <c r="J65" t="n">
+        <v>0.1888</v>
+      </c>
+      <c r="K65" t="n">
+        <v>-0.4492</v>
+      </c>
+      <c r="L65" t="n">
+        <v>0.3774</v>
+      </c>
+      <c r="M65" t="n">
+        <v>0.2716</v>
+      </c>
+      <c r="N65" t="n">
+        <v>-0.0724</v>
+      </c>
+      <c r="O65" t="n">
+        <v>-0.3106</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>46</v>
+      </c>
+      <c r="B66" t="s">
+        <v>49</v>
+      </c>
+      <c r="C66" t="s">
+        <v>50</v>
+      </c>
+      <c r="D66" t="s">
+        <v>189</v>
+      </c>
+      <c r="E66" t="s">
+        <v>74</v>
+      </c>
+      <c r="F66" t="n">
+        <v>0.2397</v>
+      </c>
+      <c r="G66" t="n">
+        <v>0.0557</v>
+      </c>
+      <c r="H66" t="n">
+        <v>0.7253</v>
+      </c>
+      <c r="I66" t="n">
+        <v>-0.0532</v>
+      </c>
+      <c r="J66" t="n">
+        <v>0.9626</v>
+      </c>
+      <c r="K66" t="n">
+        <v>-0.024</v>
+      </c>
+      <c r="L66" t="n">
+        <v>-0.0325</v>
+      </c>
+      <c r="M66" t="n">
+        <v>0.9364</v>
+      </c>
+      <c r="N66" t="n">
+        <v>0.0382</v>
+      </c>
+      <c r="O66" t="n">
+        <v>0.0563</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>46</v>
+      </c>
+      <c r="B67" t="s">
+        <v>49</v>
+      </c>
+      <c r="C67" t="s">
+        <v>50</v>
+      </c>
+      <c r="D67" t="s">
+        <v>190</v>
+      </c>
+      <c r="E67" t="s">
+        <v>76</v>
+      </c>
+      <c r="F67" t="n">
+        <v>0.7058</v>
+      </c>
+      <c r="G67" t="n">
+        <v>0.7425</v>
+      </c>
+      <c r="H67" t="n">
+        <v>-0.0408</v>
+      </c>
+      <c r="I67" t="n">
+        <v>0.9302</v>
+      </c>
+      <c r="J67" t="n">
+        <v>-0.0895</v>
+      </c>
+      <c r="K67" t="n">
+        <v>0.0236</v>
+      </c>
+      <c r="L67" t="n">
+        <v>0.869</v>
+      </c>
+      <c r="M67" t="n">
+        <v>-0.1196</v>
+      </c>
+      <c r="N67" t="n">
+        <v>0.0701</v>
+      </c>
+      <c r="O67" t="n">
+        <v>0.081</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>46</v>
+      </c>
+      <c r="B68" t="s">
+        <v>49</v>
+      </c>
+      <c r="C68" t="s">
+        <v>50</v>
+      </c>
+      <c r="D68" t="s">
+        <v>191</v>
+      </c>
+      <c r="E68" t="s">
+        <v>78</v>
+      </c>
+      <c r="F68" t="n">
+        <v>0.2534</v>
+      </c>
+      <c r="G68" t="n">
+        <v>0.1271</v>
+      </c>
+      <c r="H68" t="n">
+        <v>0.4182</v>
+      </c>
+      <c r="I68" t="n">
+        <v>0.3337</v>
+      </c>
+      <c r="J68" t="n">
+        <v>0.2772</v>
+      </c>
+      <c r="K68" t="n">
+        <v>0.4196</v>
+      </c>
+      <c r="L68" t="n">
+        <v>0.022</v>
+      </c>
+      <c r="M68" t="n">
+        <v>0.0267</v>
+      </c>
+      <c r="N68" t="n">
+        <v>0.992</v>
+      </c>
+      <c r="O68" t="n">
+        <v>-0.0157</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>46</v>
+      </c>
+      <c r="B69" t="s">
+        <v>49</v>
+      </c>
+      <c r="C69" t="s">
+        <v>50</v>
+      </c>
+      <c r="D69" t="s">
+        <v>192</v>
+      </c>
+      <c r="E69" t="s">
+        <v>80</v>
+      </c>
+      <c r="F69" t="n">
+        <v>0.1377</v>
+      </c>
+      <c r="G69" t="n">
+        <v>-0.0644</v>
+      </c>
+      <c r="H69" t="n">
+        <v>0.6664</v>
+      </c>
+      <c r="I69" t="n">
+        <v>0.0007</v>
+      </c>
+      <c r="J69" t="n">
+        <v>0.5101</v>
+      </c>
+      <c r="K69" t="n">
+        <v>0.1793</v>
+      </c>
+      <c r="L69" t="n">
+        <v>-0.0749</v>
+      </c>
+      <c r="M69" t="n">
+        <v>0.4433</v>
+      </c>
+      <c r="N69" t="n">
+        <v>0.1588</v>
+      </c>
+      <c r="O69" t="n">
+        <v>0.093</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>46</v>
+      </c>
+      <c r="B70" t="s">
+        <v>49</v>
+      </c>
+      <c r="C70" t="s">
+        <v>50</v>
+      </c>
+      <c r="D70" t="s">
+        <v>193</v>
+      </c>
+      <c r="E70" t="s">
+        <v>82</v>
+      </c>
+      <c r="F70" t="n">
+        <v>0.5369</v>
+      </c>
+      <c r="G70" t="n">
+        <v>0.5298</v>
+      </c>
+      <c r="H70" t="n">
+        <v>0.0592</v>
+      </c>
+      <c r="I70" t="n">
+        <v>0.3507</v>
+      </c>
+      <c r="J70" t="n">
+        <v>0.2153</v>
+      </c>
+      <c r="K70" t="n">
+        <v>-0.3898</v>
+      </c>
+      <c r="L70" t="n">
+        <v>0.4821</v>
+      </c>
+      <c r="M70" t="n">
+        <v>0.2899</v>
+      </c>
+      <c r="N70" t="n">
+        <v>-0.1499</v>
+      </c>
+      <c r="O70" t="n">
+        <v>-0.1659</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>46</v>
+      </c>
+      <c r="B71" t="s">
+        <v>49</v>
+      </c>
+      <c r="C71" t="s">
+        <v>50</v>
+      </c>
+      <c r="D71" t="s">
+        <v>194</v>
+      </c>
+      <c r="E71" t="s">
+        <v>195</v>
+      </c>
+      <c r="F71" t="n">
+        <v>0.0139</v>
+      </c>
+      <c r="G71" t="n">
+        <v>-0.1379</v>
+      </c>
+      <c r="H71" t="n">
+        <v>0.4198</v>
+      </c>
+      <c r="I71" t="n">
+        <v>0.0474</v>
+      </c>
+      <c r="J71" t="n">
+        <v>0.2776</v>
+      </c>
+      <c r="K71" t="n">
+        <v>0.4281</v>
+      </c>
+      <c r="L71" t="n">
+        <v>0.0688</v>
+      </c>
+      <c r="M71" t="n">
+        <v>0.1464</v>
+      </c>
+      <c r="N71" t="n">
+        <v>-0.0203</v>
+      </c>
+      <c r="O71" t="n">
+        <v>0.7031</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>46</v>
+      </c>
+      <c r="B72" t="s">
+        <v>51</v>
+      </c>
+      <c r="C72" t="s">
+        <v>52</v>
+      </c>
+      <c r="D72" t="s">
+        <v>196</v>
+      </c>
+      <c r="E72" t="s">
+        <v>84</v>
+      </c>
+      <c r="F72" t="n">
+        <v>0.6236</v>
+      </c>
+      <c r="G72" t="n">
+        <v>-0.0667</v>
+      </c>
+      <c r="H72" t="n">
+        <v>1.0352</v>
+      </c>
+      <c r="I72" t="n">
+        <v>-0.0849</v>
+      </c>
+      <c r="J72" t="n">
+        <v>1.0178</v>
+      </c>
+      <c r="K72" t="n">
+        <v>0.0345</v>
+      </c>
+      <c r="L72" t="n">
+        <v>-0.0773</v>
+      </c>
+      <c r="M72" t="n">
+        <v>-0.0027</v>
+      </c>
+      <c r="N72" t="n">
+        <v>1.0368</v>
+      </c>
+      <c r="O72" t="n">
+        <v>0.0065</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>46</v>
+      </c>
+      <c r="B73" t="s">
+        <v>51</v>
+      </c>
+      <c r="C73" t="s">
+        <v>52</v>
+      </c>
+      <c r="D73" t="s">
+        <v>197</v>
+      </c>
+      <c r="E73" t="s">
+        <v>86</v>
+      </c>
+      <c r="F73" t="n">
+        <v>0.7184</v>
+      </c>
+      <c r="G73" t="n">
+        <v>0.2636</v>
+      </c>
+      <c r="H73" t="n">
+        <v>0.6682</v>
+      </c>
+      <c r="I73" t="n">
+        <v>0.3079</v>
+      </c>
+      <c r="J73" t="n">
+        <v>0.7115</v>
+      </c>
+      <c r="K73" t="n">
+        <v>-0.0695</v>
+      </c>
+      <c r="L73" t="n">
+        <v>0.3216</v>
+      </c>
+      <c r="M73" t="n">
+        <v>-0.0354</v>
+      </c>
+      <c r="N73" t="n">
+        <v>0.6833</v>
+      </c>
+      <c r="O73" t="n">
+        <v>-0.0384</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>46</v>
+      </c>
+      <c r="B74" t="s">
+        <v>51</v>
+      </c>
+      <c r="C74" t="s">
+        <v>52</v>
+      </c>
+      <c r="D74" t="s">
+        <v>198</v>
+      </c>
+      <c r="E74" t="s">
+        <v>88</v>
+      </c>
+      <c r="F74" t="n">
+        <v>0.6511</v>
+      </c>
+      <c r="G74" t="n">
+        <v>0.6848</v>
+      </c>
+      <c r="H74" t="n">
+        <v>-0.0265</v>
+      </c>
+      <c r="I74" t="n">
+        <v>0.4774</v>
+      </c>
+      <c r="J74" t="n">
+        <v>-0.0087</v>
+      </c>
+      <c r="K74" t="n">
+        <v>0.2609</v>
+      </c>
+      <c r="L74" t="n">
+        <v>0.0673</v>
+      </c>
+      <c r="M74" t="n">
+        <v>0.2939</v>
+      </c>
+      <c r="N74" t="n">
+        <v>0.1315</v>
+      </c>
+      <c r="O74" t="n">
+        <v>0.5562</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s">
+        <v>46</v>
+      </c>
+      <c r="B75" t="s">
+        <v>51</v>
+      </c>
+      <c r="C75" t="s">
+        <v>52</v>
+      </c>
+      <c r="D75" t="s">
+        <v>199</v>
+      </c>
+      <c r="E75" t="s">
+        <v>90</v>
+      </c>
+      <c r="F75" t="n">
+        <v>0.7068</v>
+      </c>
+      <c r="G75" t="n">
+        <v>0.3439</v>
+      </c>
+      <c r="H75" t="n">
+        <v>0.5304</v>
+      </c>
+      <c r="I75" t="n">
+        <v>0.1589</v>
+      </c>
+      <c r="J75" t="n">
+        <v>0.5356</v>
+      </c>
+      <c r="K75" t="n">
+        <v>0.2318</v>
+      </c>
+      <c r="L75" t="n">
+        <v>0.0944</v>
+      </c>
+      <c r="M75" t="n">
+        <v>0.2043</v>
+      </c>
+      <c r="N75" t="n">
+        <v>0.5664</v>
+      </c>
+      <c r="O75" t="n">
+        <v>0.1131</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s">
+        <v>46</v>
+      </c>
+      <c r="B76" t="s">
+        <v>51</v>
+      </c>
+      <c r="C76" t="s">
+        <v>52</v>
+      </c>
+      <c r="D76" t="s">
+        <v>200</v>
+      </c>
+      <c r="E76" t="s">
+        <v>92</v>
+      </c>
+      <c r="F76" t="n">
+        <v>0.739</v>
+      </c>
+      <c r="G76" t="n">
+        <v>0.7857</v>
+      </c>
+      <c r="H76" t="n">
+        <v>-0.0437</v>
+      </c>
+      <c r="I76" t="n">
+        <v>0.494</v>
+      </c>
+      <c r="J76" t="n">
+        <v>-0.032</v>
+      </c>
+      <c r="K76" t="n">
+        <v>0.3743</v>
+      </c>
+      <c r="L76" t="n">
+        <v>0.2783</v>
+      </c>
+      <c r="M76" t="n">
+        <v>0.4212</v>
+      </c>
+      <c r="N76" t="n">
+        <v>0.0212</v>
+      </c>
+      <c r="O76" t="n">
+        <v>0.2545</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s">
+        <v>46</v>
+      </c>
+      <c r="B77" t="s">
+        <v>51</v>
+      </c>
+      <c r="C77" t="s">
+        <v>52</v>
+      </c>
+      <c r="D77" t="s">
+        <v>201</v>
+      </c>
+      <c r="E77" t="s">
+        <v>94</v>
+      </c>
+      <c r="F77" t="n">
+        <v>0.7975</v>
+      </c>
+      <c r="G77" t="n">
+        <v>0.894</v>
+      </c>
+      <c r="H77" t="n">
+        <v>-0.0992</v>
+      </c>
+      <c r="I77" t="n">
+        <v>0.9872</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-0.062</v>
+      </c>
+      <c r="K77" t="n">
+        <v>-0.0872</v>
+      </c>
+      <c r="L77" t="n">
+        <v>0.781</v>
+      </c>
+      <c r="M77" t="n">
+        <v>-0.1052</v>
+      </c>
+      <c r="N77" t="n">
+        <v>0.0104</v>
+      </c>
+      <c r="O77" t="n">
+        <v>0.3824</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s">
+        <v>46</v>
+      </c>
+      <c r="B78" t="s">
+        <v>51</v>
+      </c>
+      <c r="C78" t="s">
+        <v>52</v>
+      </c>
+      <c r="D78" t="s">
+        <v>202</v>
+      </c>
+      <c r="E78" t="s">
+        <v>203</v>
+      </c>
+      <c r="F78" t="n">
+        <v>0.8522</v>
+      </c>
+      <c r="G78" t="n">
+        <v>0.8554</v>
+      </c>
+      <c r="H78" t="n">
+        <v>0.019</v>
+      </c>
+      <c r="I78" t="n">
+        <v>0.7484</v>
+      </c>
+      <c r="J78" t="n">
+        <v>0.0581</v>
+      </c>
+      <c r="K78" t="n">
+        <v>0.1338</v>
+      </c>
+      <c r="L78" t="n">
+        <v>0.6994</v>
+      </c>
+      <c r="M78" t="n">
+        <v>0.231</v>
+      </c>
+      <c r="N78" t="n">
+        <v>0.0175</v>
+      </c>
+      <c r="O78" t="n">
+        <v>0.0117</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s">
+        <v>46</v>
+      </c>
+      <c r="B79" t="s">
+        <v>51</v>
+      </c>
+      <c r="C79" t="s">
+        <v>52</v>
+      </c>
+      <c r="D79" t="s">
+        <v>204</v>
+      </c>
+      <c r="E79" t="s">
+        <v>205</v>
+      </c>
+      <c r="F79" t="n">
+        <v>0.8259</v>
+      </c>
+      <c r="G79" t="n">
+        <v>0.7587</v>
+      </c>
+      <c r="H79" t="n">
+        <v>0.1118</v>
+      </c>
+      <c r="I79" t="n">
+        <v>0.7592</v>
+      </c>
+      <c r="J79" t="n">
+        <v>0.1545</v>
+      </c>
+      <c r="K79" t="n">
+        <v>-0.0013</v>
+      </c>
+      <c r="L79" t="n">
+        <v>0.8587</v>
+      </c>
+      <c r="M79" t="n">
+        <v>0.0642</v>
+      </c>
+      <c r="N79" t="n">
+        <v>0.0699</v>
+      </c>
+      <c r="O79" t="n">
+        <v>-0.1289</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s">
+        <v>46</v>
+      </c>
+      <c r="B80" t="s">
+        <v>51</v>
+      </c>
+      <c r="C80" t="s">
+        <v>52</v>
+      </c>
+      <c r="D80" t="s">
+        <v>206</v>
+      </c>
+      <c r="E80" t="s">
+        <v>207</v>
+      </c>
+      <c r="F80" t="n">
+        <v>0.7967</v>
+      </c>
+      <c r="G80" t="n">
+        <v>0.6539</v>
+      </c>
+      <c r="H80" t="n">
+        <v>0.2132</v>
+      </c>
+      <c r="I80" t="n">
+        <v>0.5979</v>
+      </c>
+      <c r="J80" t="n">
+        <v>0.2463</v>
+      </c>
+      <c r="K80" t="n">
+        <v>0.0667</v>
+      </c>
+      <c r="L80" t="n">
+        <v>0.6491</v>
+      </c>
+      <c r="M80" t="n">
+        <v>0.1255</v>
+      </c>
+      <c r="N80" t="n">
+        <v>0.1874</v>
+      </c>
+      <c r="O80" t="n">
+        <v>-0.0858</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s">
+        <v>46</v>
+      </c>
+      <c r="B81" t="s">
+        <v>51</v>
+      </c>
+      <c r="C81" t="s">
+        <v>52</v>
+      </c>
+      <c r="D81" t="s">
+        <v>208</v>
+      </c>
+      <c r="E81" t="s">
+        <v>209</v>
+      </c>
+      <c r="F81" t="n">
+        <v>0.6806</v>
+      </c>
+      <c r="G81" t="n">
+        <v>0.5949</v>
+      </c>
+      <c r="H81" t="n">
+        <v>0.1321</v>
+      </c>
+      <c r="I81" t="n">
+        <v>0.0941</v>
+      </c>
+      <c r="J81" t="n">
+        <v>0.1196</v>
+      </c>
+      <c r="K81" t="n">
+        <v>0.6472</v>
+      </c>
+      <c r="L81" t="n">
+        <v>0.0563</v>
+      </c>
+      <c r="M81" t="n">
+        <v>0.7784</v>
+      </c>
+      <c r="N81" t="n">
+        <v>0.0543</v>
+      </c>
+      <c r="O81" t="n">
+        <v>-0.0595</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s">
+        <v>46</v>
+      </c>
+      <c r="B82" t="s">
+        <v>51</v>
+      </c>
+      <c r="C82" t="s">
+        <v>52</v>
+      </c>
+      <c r="D82" t="s">
+        <v>210</v>
+      </c>
+      <c r="E82" t="s">
+        <v>211</v>
+      </c>
+      <c r="F82" t="n">
+        <v>0.6985</v>
+      </c>
+      <c r="G82" t="n">
+        <v>0.6607</v>
+      </c>
+      <c r="H82" t="n">
+        <v>0.0673</v>
+      </c>
+      <c r="I82" t="n">
+        <v>0.0103</v>
+      </c>
+      <c r="J82" t="n">
+        <v>0.0145</v>
+      </c>
+      <c r="K82" t="n">
+        <v>0.8857</v>
+      </c>
+      <c r="L82" t="n">
+        <v>0.0173</v>
+      </c>
+      <c r="M82" t="n">
+        <v>0.7878</v>
+      </c>
+      <c r="N82" t="n">
+        <v>0.0244</v>
+      </c>
+      <c r="O82" t="n">
+        <v>0.0763</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s">
+        <v>46</v>
+      </c>
+      <c r="B83" t="s">
+        <v>51</v>
+      </c>
+      <c r="C83" t="s">
+        <v>52</v>
+      </c>
+      <c r="D83" t="s">
+        <v>212</v>
+      </c>
+      <c r="E83" t="s">
+        <v>213</v>
+      </c>
+      <c r="F83" t="n">
+        <v>0.7981</v>
+      </c>
+      <c r="G83" t="n">
+        <v>0.8583</v>
+      </c>
+      <c r="H83" t="n">
+        <v>-0.0578</v>
+      </c>
+      <c r="I83" t="n">
+        <v>0.6648</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-0.0263</v>
+      </c>
+      <c r="K83" t="n">
+        <v>0.2402</v>
+      </c>
+      <c r="L83" t="n">
+        <v>0.5412</v>
+      </c>
+      <c r="M83" t="n">
+        <v>0.304</v>
+      </c>
+      <c r="N83" t="n">
+        <v>-0.0181</v>
+      </c>
+      <c r="O83" t="n">
+        <v>0.1245</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s">
+        <v>46</v>
+      </c>
+      <c r="B84" t="s">
+        <v>53</v>
+      </c>
+      <c r="C84" t="s">
+        <v>54</v>
+      </c>
+      <c r="D84" t="s">
+        <v>214</v>
+      </c>
+      <c r="E84" t="s">
+        <v>96</v>
+      </c>
+      <c r="F84" t="n">
+        <v>0.6587</v>
+      </c>
+      <c r="G84" t="n">
+        <v>0.6651</v>
+      </c>
+      <c r="H84" t="n">
+        <v>0.0072</v>
+      </c>
+      <c r="I84" t="n">
+        <v>0.3034</v>
+      </c>
+      <c r="J84" t="n">
+        <v>0.0952</v>
+      </c>
+      <c r="K84" t="n">
+        <v>0.4006</v>
+      </c>
+      <c r="L84" t="n">
+        <v>0.3014</v>
+      </c>
+      <c r="M84" t="n">
+        <v>0.4264</v>
+      </c>
+      <c r="N84" t="n">
+        <v>0.1554</v>
+      </c>
+      <c r="O84" t="n">
+        <v>-0.2741</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s">
+        <v>46</v>
+      </c>
+      <c r="B85" t="s">
+        <v>53</v>
+      </c>
+      <c r="C85" t="s">
+        <v>54</v>
+      </c>
+      <c r="D85" t="s">
+        <v>215</v>
+      </c>
+      <c r="E85" t="s">
+        <v>98</v>
+      </c>
+      <c r="F85" t="n">
+        <v>0.6914</v>
+      </c>
+      <c r="G85" t="n">
+        <v>0.8244</v>
+      </c>
+      <c r="H85" t="n">
+        <v>-0.1662</v>
+      </c>
+      <c r="I85" t="n">
+        <v>0.5419</v>
+      </c>
+      <c r="J85" t="n">
+        <v>-0.0853</v>
+      </c>
+      <c r="K85" t="n">
+        <v>0.3266</v>
+      </c>
+      <c r="L85" t="n">
+        <v>0.5584</v>
+      </c>
+      <c r="M85" t="n">
+        <v>0.3293</v>
+      </c>
+      <c r="N85" t="n">
+        <v>-0.0449</v>
+      </c>
+      <c r="O85" t="n">
+        <v>-0.2433</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s">
+        <v>46</v>
+      </c>
+      <c r="B86" t="s">
+        <v>53</v>
+      </c>
+      <c r="C86" t="s">
+        <v>54</v>
+      </c>
+      <c r="D86" t="s">
+        <v>216</v>
+      </c>
+      <c r="E86" t="s">
+        <v>100</v>
+      </c>
+      <c r="F86" t="n">
+        <v>0.7386</v>
+      </c>
+      <c r="G86" t="n">
+        <v>0.7766</v>
+      </c>
+      <c r="H86" t="n">
+        <v>-0.0344</v>
+      </c>
+      <c r="I86" t="n">
+        <v>0.707</v>
+      </c>
+      <c r="J86" t="n">
+        <v>0.0085</v>
+      </c>
+      <c r="K86" t="n">
+        <v>0.0856</v>
+      </c>
+      <c r="L86" t="n">
+        <v>0.7521</v>
+      </c>
+      <c r="M86" t="n">
+        <v>0.0598</v>
+      </c>
+      <c r="N86" t="n">
+        <v>-0.0694</v>
+      </c>
+      <c r="O86" t="n">
+        <v>0.2154</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s">
+        <v>46</v>
+      </c>
+      <c r="B87" t="s">
+        <v>53</v>
+      </c>
+      <c r="C87" t="s">
+        <v>54</v>
+      </c>
+      <c r="D87" t="s">
+        <v>217</v>
+      </c>
+      <c r="E87" t="s">
+        <v>102</v>
+      </c>
+      <c r="F87" t="n">
+        <v>0.7864</v>
+      </c>
+      <c r="G87" t="n">
+        <v>0.8528</v>
+      </c>
+      <c r="H87" t="n">
+        <v>-0.0702</v>
+      </c>
+      <c r="I87" t="n">
+        <v>0.7988</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-0.0427</v>
+      </c>
+      <c r="K87" t="n">
+        <v>0.0949</v>
+      </c>
+      <c r="L87" t="n">
+        <v>0.8463</v>
+      </c>
+      <c r="M87" t="n">
+        <v>0.0612</v>
+      </c>
+      <c r="N87" t="n">
+        <v>-0.0948</v>
+      </c>
+      <c r="O87" t="n">
+        <v>0.1312</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s">
+        <v>46</v>
+      </c>
+      <c r="B88" t="s">
+        <v>53</v>
+      </c>
+      <c r="C88" t="s">
+        <v>54</v>
+      </c>
+      <c r="D88" t="s">
+        <v>218</v>
+      </c>
+      <c r="E88" t="s">
+        <v>104</v>
+      </c>
+      <c r="F88" t="n">
+        <v>0.7742</v>
+      </c>
+      <c r="G88" t="n">
+        <v>0.7835</v>
+      </c>
+      <c r="H88" t="n">
+        <v>0.0091</v>
+      </c>
+      <c r="I88" t="n">
+        <v>0.9532</v>
+      </c>
+      <c r="J88" t="n">
+        <v>-0.0337</v>
+      </c>
+      <c r="K88" t="n">
+        <v>-0.1036</v>
+      </c>
+      <c r="L88" t="n">
+        <v>0.899</v>
+      </c>
+      <c r="M88" t="n">
+        <v>-0.0771</v>
+      </c>
+      <c r="N88" t="n">
+        <v>0.0388</v>
+      </c>
+      <c r="O88" t="n">
+        <v>-0.132</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s">
+        <v>46</v>
+      </c>
+      <c r="B89" t="s">
+        <v>53</v>
+      </c>
+      <c r="C89" t="s">
+        <v>54</v>
+      </c>
+      <c r="D89" t="s">
+        <v>219</v>
+      </c>
+      <c r="E89" t="s">
+        <v>106</v>
+      </c>
+      <c r="F89" t="n">
+        <v>0.8206</v>
+      </c>
+      <c r="G89" t="n">
+        <v>0.7642</v>
+      </c>
+      <c r="H89" t="n">
+        <v>0.1042</v>
+      </c>
+      <c r="I89" t="n">
+        <v>0.8472</v>
+      </c>
+      <c r="J89" t="n">
+        <v>0.1062</v>
+      </c>
+      <c r="K89" t="n">
+        <v>-0.0588</v>
+      </c>
+      <c r="L89" t="n">
+        <v>0.8261</v>
+      </c>
+      <c r="M89" t="n">
+        <v>-0.0433</v>
+      </c>
+      <c r="N89" t="n">
+        <v>0.1467</v>
+      </c>
+      <c r="O89" t="n">
+        <v>-0.0697</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s">
+        <v>46</v>
+      </c>
+      <c r="B90" t="s">
+        <v>53</v>
+      </c>
+      <c r="C90" t="s">
+        <v>54</v>
+      </c>
+      <c r="D90" t="s">
+        <v>220</v>
+      </c>
+      <c r="E90" t="s">
+        <v>108</v>
+      </c>
+      <c r="F90" t="n">
+        <v>0.7424</v>
+      </c>
+      <c r="G90" t="n">
+        <v>0.6922</v>
+      </c>
+      <c r="H90" t="n">
+        <v>0.0885</v>
+      </c>
+      <c r="I90" t="n">
+        <v>0.6017</v>
+      </c>
+      <c r="J90" t="n">
+        <v>0.1344</v>
+      </c>
+      <c r="K90" t="n">
+        <v>0.0881</v>
+      </c>
+      <c r="L90" t="n">
+        <v>0.6114</v>
+      </c>
+      <c r="M90" t="n">
+        <v>0.0855</v>
+      </c>
+      <c r="N90" t="n">
+        <v>0.1241</v>
+      </c>
+      <c r="O90" t="n">
+        <v>0.049</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s">
+        <v>46</v>
+      </c>
+      <c r="B91" t="s">
+        <v>53</v>
+      </c>
+      <c r="C91" t="s">
+        <v>54</v>
+      </c>
+      <c r="D91" t="s">
+        <v>221</v>
+      </c>
+      <c r="E91" t="s">
+        <v>110</v>
+      </c>
+      <c r="F91" t="n">
+        <v>0.4385</v>
+      </c>
+      <c r="G91" t="n">
+        <v>-0.0313</v>
+      </c>
+      <c r="H91" t="n">
+        <v>0.7209</v>
+      </c>
+      <c r="I91" t="n">
+        <v>-0.1003</v>
+      </c>
+      <c r="J91" t="n">
+        <v>0.7357</v>
+      </c>
+      <c r="K91" t="n">
+        <v>-0.0052</v>
+      </c>
+      <c r="L91" t="n">
+        <v>-0.0814</v>
+      </c>
+      <c r="M91" t="n">
+        <v>-0.0005</v>
+      </c>
+      <c r="N91" t="n">
+        <v>0.8187</v>
+      </c>
+      <c r="O91" t="n">
+        <v>-0.1304</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s">
+        <v>46</v>
+      </c>
+      <c r="B92" t="s">
+        <v>53</v>
+      </c>
+      <c r="C92" t="s">
+        <v>54</v>
+      </c>
+      <c r="D92" t="s">
+        <v>222</v>
+      </c>
+      <c r="E92" t="s">
+        <v>223</v>
+      </c>
+      <c r="F92" t="n">
+        <v>0.5383</v>
+      </c>
+      <c r="G92" t="n">
+        <v>0.0709</v>
+      </c>
+      <c r="H92" t="n">
+        <v>0.7254</v>
+      </c>
+      <c r="I92" t="n">
+        <v>0.0682</v>
+      </c>
+      <c r="J92" t="n">
+        <v>0.7761</v>
+      </c>
+      <c r="K92" t="n">
+        <v>-0.1151</v>
+      </c>
+      <c r="L92" t="n">
+        <v>0.1432</v>
+      </c>
+      <c r="M92" t="n">
+        <v>-0.0944</v>
+      </c>
+      <c r="N92" t="n">
+        <v>0.6751</v>
+      </c>
+      <c r="O92" t="n">
+        <v>0.1697</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s">
+        <v>46</v>
+      </c>
+      <c r="B93" t="s">
+        <v>53</v>
+      </c>
+      <c r="C93" t="s">
+        <v>54</v>
+      </c>
+      <c r="D93" t="s">
+        <v>224</v>
+      </c>
+      <c r="E93" t="s">
+        <v>225</v>
+      </c>
+      <c r="F93" t="n">
+        <v>0.5554</v>
+      </c>
+      <c r="G93" t="n">
+        <v>0.6627</v>
+      </c>
+      <c r="H93" t="n">
+        <v>-0.1363</v>
+      </c>
+      <c r="I93" t="n">
+        <v>0.0023</v>
+      </c>
+      <c r="J93" t="n">
+        <v>-0.0503</v>
+      </c>
+      <c r="K93" t="n">
+        <v>0.8217</v>
+      </c>
+      <c r="L93" t="n">
+        <v>-0.0337</v>
+      </c>
+      <c r="M93" t="n">
+        <v>0.8691</v>
+      </c>
+      <c r="N93" t="n">
+        <v>-0.0744</v>
+      </c>
+      <c r="O93" t="n">
+        <v>0.0149</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s">
+        <v>46</v>
+      </c>
+      <c r="B94" t="s">
+        <v>53</v>
+      </c>
+      <c r="C94" t="s">
+        <v>54</v>
+      </c>
+      <c r="D94" t="s">
+        <v>226</v>
+      </c>
+      <c r="E94" t="s">
+        <v>227</v>
+      </c>
+      <c r="F94" t="n">
+        <v>0.7689</v>
+      </c>
+      <c r="G94" t="n">
+        <v>0.5488</v>
+      </c>
+      <c r="H94" t="n">
+        <v>0.3388</v>
+      </c>
+      <c r="I94" t="n">
+        <v>0.1475</v>
+      </c>
+      <c r="J94" t="n">
+        <v>0.4605</v>
+      </c>
+      <c r="K94" t="n">
+        <v>0.3842</v>
+      </c>
+      <c r="L94" t="n">
+        <v>0.1635</v>
+      </c>
+      <c r="M94" t="n">
+        <v>0.4164</v>
+      </c>
+      <c r="N94" t="n">
+        <v>0.3698</v>
+      </c>
+      <c r="O94" t="n">
+        <v>0.2777</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s">
+        <v>46</v>
+      </c>
+      <c r="B95" t="s">
+        <v>53</v>
+      </c>
+      <c r="C95" t="s">
+        <v>54</v>
+      </c>
+      <c r="D95" t="s">
+        <v>228</v>
+      </c>
+      <c r="E95" t="s">
+        <v>229</v>
+      </c>
+      <c r="F95" t="n">
+        <v>0.7962</v>
+      </c>
+      <c r="G95" t="n">
+        <v>0.5926</v>
+      </c>
+      <c r="H95" t="n">
+        <v>0.3136</v>
+      </c>
+      <c r="I95" t="n">
+        <v>0.3483</v>
+      </c>
+      <c r="J95" t="n">
+        <v>0.3869</v>
+      </c>
+      <c r="K95" t="n">
+        <v>0.2306</v>
+      </c>
+      <c r="L95" t="n">
+        <v>0.3647</v>
+      </c>
+      <c r="M95" t="n">
+        <v>0.2473</v>
+      </c>
+      <c r="N95" t="n">
+        <v>0.3321</v>
+      </c>
+      <c r="O95" t="n">
+        <v>0.1832</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s">
+        <v>46</v>
+      </c>
+      <c r="B96" t="s">
+        <v>53</v>
+      </c>
+      <c r="C96" t="s">
+        <v>54</v>
+      </c>
+      <c r="D96" t="s">
+        <v>230</v>
+      </c>
+      <c r="E96" t="s">
+        <v>231</v>
+      </c>
+      <c r="F96" t="n">
+        <v>0.5584</v>
+      </c>
+      <c r="G96" t="n">
+        <v>0.488</v>
+      </c>
+      <c r="H96" t="n">
+        <v>0.1089</v>
+      </c>
+      <c r="I96" t="n">
+        <v>0.0304</v>
+      </c>
+      <c r="J96" t="n">
+        <v>0.2245</v>
+      </c>
+      <c r="K96" t="n">
+        <v>0.4896</v>
+      </c>
+      <c r="L96" t="n">
+        <v>0.0613</v>
+      </c>
+      <c r="M96" t="n">
+        <v>0.4864</v>
+      </c>
+      <c r="N96" t="n">
+        <v>0.2124</v>
+      </c>
+      <c r="O96" t="n">
+        <v>-0.0554</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s">
+        <v>46</v>
+      </c>
+      <c r="B97" t="s">
+        <v>53</v>
+      </c>
+      <c r="C97" t="s">
+        <v>54</v>
+      </c>
+      <c r="D97" t="s">
+        <v>232</v>
+      </c>
+      <c r="E97" t="s">
+        <v>233</v>
+      </c>
+      <c r="F97" t="n">
+        <v>0.7977</v>
+      </c>
+      <c r="G97" t="n">
+        <v>0.536</v>
+      </c>
+      <c r="H97" t="n">
+        <v>0.4027</v>
+      </c>
+      <c r="I97" t="n">
+        <v>0.2294</v>
+      </c>
+      <c r="J97" t="n">
+        <v>0.4956</v>
+      </c>
+      <c r="K97" t="n">
+        <v>0.2782</v>
+      </c>
+      <c r="L97" t="n">
+        <v>0.2738</v>
+      </c>
+      <c r="M97" t="n">
+        <v>0.2867</v>
+      </c>
+      <c r="N97" t="n">
+        <v>0.4168</v>
+      </c>
+      <c r="O97" t="n">
+        <v>0.1632</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s">
+        <v>46</v>
+      </c>
+      <c r="B98" t="s">
+        <v>55</v>
+      </c>
+      <c r="C98" t="s">
+        <v>56</v>
+      </c>
+      <c r="D98" t="s">
+        <v>234</v>
+      </c>
+      <c r="E98" t="s">
         <v>112</v>
       </c>
-      <c r="E33" t="s">
-        <v>113</v>
-      </c>
-      <c r="F33" t="n">
-        <v>0.7502</v>
-      </c>
-      <c r="G33" t="n">
-        <v>0.5281</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0.2637</v>
-      </c>
-      <c r="I33" t="n">
-        <v>0.0278</v>
-      </c>
-      <c r="J33" t="n">
-        <v>0.0355</v>
-      </c>
-      <c r="K33" t="n">
-        <v>0.8412</v>
-      </c>
-      <c r="L33" t="n">
-        <v>-0.0174</v>
-      </c>
-      <c r="M33" t="n">
-        <v>-0.0143</v>
-      </c>
-      <c r="N33" t="n">
-        <v>0.8817</v>
-      </c>
-      <c r="O33" t="n">
-        <v>0.0222</v>
+      <c r="F98" t="n">
+        <v>0.6631</v>
+      </c>
+      <c r="G98" t="n">
+        <v>0.475</v>
+      </c>
+      <c r="H98" t="n">
+        <v>0.2672</v>
+      </c>
+      <c r="I98" t="n">
+        <v>0.3343</v>
+      </c>
+      <c r="J98" t="n">
+        <v>0.338</v>
+      </c>
+      <c r="K98" t="n">
+        <v>0.0905</v>
+      </c>
+      <c r="L98" t="n">
+        <v>0.356</v>
+      </c>
+      <c r="M98" t="n">
+        <v>0.1966</v>
+      </c>
+      <c r="N98" t="n">
+        <v>0.2585</v>
+      </c>
+      <c r="O98" t="n">
+        <v>-0.1068</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s">
+        <v>46</v>
+      </c>
+      <c r="B99" t="s">
+        <v>55</v>
+      </c>
+      <c r="C99" t="s">
+        <v>56</v>
+      </c>
+      <c r="D99" t="s">
+        <v>235</v>
+      </c>
+      <c r="E99" t="s">
+        <v>114</v>
+      </c>
+      <c r="F99" t="n">
+        <v>0.7565</v>
+      </c>
+      <c r="G99" t="n">
+        <v>0.8649</v>
+      </c>
+      <c r="H99" t="n">
+        <v>-0.003</v>
+      </c>
+      <c r="I99" t="n">
+        <v>0.9987</v>
+      </c>
+      <c r="J99" t="n">
+        <v>-0.0895</v>
+      </c>
+      <c r="K99" t="n">
+        <v>0.0459</v>
+      </c>
+      <c r="L99" t="n">
+        <v>0.925</v>
+      </c>
+      <c r="M99" t="n">
+        <v>0.0171</v>
+      </c>
+      <c r="N99" t="n">
+        <v>-0.0702</v>
+      </c>
+      <c r="O99" t="n">
+        <v>0.0566</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s">
+        <v>46</v>
+      </c>
+      <c r="B100" t="s">
+        <v>55</v>
+      </c>
+      <c r="C100" t="s">
+        <v>56</v>
+      </c>
+      <c r="D100" t="s">
+        <v>236</v>
+      </c>
+      <c r="E100" t="s">
+        <v>116</v>
+      </c>
+      <c r="F100" t="n">
+        <v>0.7307</v>
+      </c>
+      <c r="G100" t="n">
+        <v>0.9214</v>
+      </c>
+      <c r="H100" t="n">
+        <v>-0.0798</v>
+      </c>
+      <c r="I100" t="n">
+        <v>0.7316</v>
+      </c>
+      <c r="J100" t="n">
+        <v>0.1975</v>
+      </c>
+      <c r="K100" t="n">
+        <v>-0.0758</v>
+      </c>
+      <c r="L100" t="n">
+        <v>0.8659</v>
+      </c>
+      <c r="M100" t="n">
+        <v>-0.0433</v>
+      </c>
+      <c r="N100" t="n">
+        <v>0.0486</v>
+      </c>
+      <c r="O100" t="n">
+        <v>-0.0256</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s">
+        <v>46</v>
+      </c>
+      <c r="B101" t="s">
+        <v>55</v>
+      </c>
+      <c r="C101" t="s">
+        <v>56</v>
+      </c>
+      <c r="D101" t="s">
+        <v>237</v>
+      </c>
+      <c r="E101" t="s">
+        <v>118</v>
+      </c>
+      <c r="F101" t="n">
+        <v>0.7416</v>
+      </c>
+      <c r="G101" t="n">
+        <v>0.6824</v>
+      </c>
+      <c r="H101" t="n">
+        <v>0.1451</v>
+      </c>
+      <c r="I101" t="n">
+        <v>0.4891</v>
+      </c>
+      <c r="J101" t="n">
+        <v>0.3449</v>
+      </c>
+      <c r="K101" t="n">
+        <v>0.0059</v>
+      </c>
+      <c r="L101" t="n">
+        <v>0.5877</v>
+      </c>
+      <c r="M101" t="n">
+        <v>0.0808</v>
+      </c>
+      <c r="N101" t="n">
+        <v>0.1796</v>
+      </c>
+      <c r="O101" t="n">
+        <v>-0.0142</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s">
+        <v>46</v>
+      </c>
+      <c r="B102" t="s">
+        <v>55</v>
+      </c>
+      <c r="C102" t="s">
+        <v>56</v>
+      </c>
+      <c r="D102" t="s">
+        <v>238</v>
+      </c>
+      <c r="E102" t="s">
+        <v>120</v>
+      </c>
+      <c r="F102" t="n">
+        <v>0.6005</v>
+      </c>
+      <c r="G102" t="n">
+        <v>0.2026</v>
+      </c>
+      <c r="H102" t="n">
+        <v>0.4972</v>
+      </c>
+      <c r="I102" t="n">
+        <v>0.1848</v>
+      </c>
+      <c r="J102" t="n">
+        <v>0.1789</v>
+      </c>
+      <c r="K102" t="n">
+        <v>0.3784</v>
+      </c>
+      <c r="L102" t="n">
+        <v>0.1784</v>
+      </c>
+      <c r="M102" t="n">
+        <v>0.1433</v>
+      </c>
+      <c r="N102" t="n">
+        <v>0.1608</v>
+      </c>
+      <c r="O102" t="n">
+        <v>0.5249</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s">
+        <v>46</v>
+      </c>
+      <c r="B103" t="s">
+        <v>55</v>
+      </c>
+      <c r="C103" t="s">
+        <v>56</v>
+      </c>
+      <c r="D103" t="s">
+        <v>239</v>
+      </c>
+      <c r="E103" t="s">
+        <v>240</v>
+      </c>
+      <c r="F103" t="n">
+        <v>0.6518</v>
+      </c>
+      <c r="G103" t="n">
+        <v>-0.0982</v>
+      </c>
+      <c r="H103" t="n">
+        <v>0.9325</v>
+      </c>
+      <c r="I103" t="n">
+        <v>-0.0139</v>
+      </c>
+      <c r="J103" t="n">
+        <v>-0.0135</v>
+      </c>
+      <c r="K103" t="n">
+        <v>1.0148</v>
+      </c>
+      <c r="L103" t="n">
+        <v>-0.0594</v>
+      </c>
+      <c r="M103" t="n">
+        <v>0.7989</v>
+      </c>
+      <c r="N103" t="n">
+        <v>0.0216</v>
+      </c>
+      <c r="O103" t="n">
+        <v>0.2043</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s">
+        <v>46</v>
+      </c>
+      <c r="B104" t="s">
+        <v>55</v>
+      </c>
+      <c r="C104" t="s">
+        <v>56</v>
+      </c>
+      <c r="D104" t="s">
+        <v>241</v>
+      </c>
+      <c r="E104" t="s">
+        <v>242</v>
+      </c>
+      <c r="F104" t="n">
+        <v>0.6741</v>
+      </c>
+      <c r="G104" t="n">
+        <v>0.1053</v>
+      </c>
+      <c r="H104" t="n">
+        <v>0.706</v>
+      </c>
+      <c r="I104" t="n">
+        <v>0.0829</v>
+      </c>
+      <c r="J104" t="n">
+        <v>0.2644</v>
+      </c>
+      <c r="K104" t="n">
+        <v>0.5016</v>
+      </c>
+      <c r="L104" t="n">
+        <v>0.0707</v>
+      </c>
+      <c r="M104" t="n">
+        <v>0.8345</v>
+      </c>
+      <c r="N104" t="n">
+        <v>0.0236</v>
+      </c>
+      <c r="O104" t="n">
+        <v>-0.1383</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s">
+        <v>46</v>
+      </c>
+      <c r="B105" t="s">
+        <v>55</v>
+      </c>
+      <c r="C105" t="s">
+        <v>56</v>
+      </c>
+      <c r="D105" t="s">
+        <v>243</v>
+      </c>
+      <c r="E105" t="s">
+        <v>244</v>
+      </c>
+      <c r="F105" t="n">
+        <v>0.655</v>
+      </c>
+      <c r="G105" t="n">
+        <v>0.3199</v>
+      </c>
+      <c r="H105" t="n">
+        <v>0.4182</v>
+      </c>
+      <c r="I105" t="n">
+        <v>-0.0247</v>
+      </c>
+      <c r="J105" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="K105" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="L105" t="n">
+        <v>-0.042</v>
+      </c>
+      <c r="M105" t="n">
+        <v>-0.0172</v>
+      </c>
+      <c r="N105" t="n">
+        <v>0.8161</v>
+      </c>
+      <c r="O105" t="n">
+        <v>0.0021</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s">
+        <v>46</v>
+      </c>
+      <c r="B106" t="s">
+        <v>55</v>
+      </c>
+      <c r="C106" t="s">
+        <v>56</v>
+      </c>
+      <c r="D106" t="s">
+        <v>245</v>
+      </c>
+      <c r="E106" t="s">
+        <v>246</v>
+      </c>
+      <c r="F106" t="n">
+        <v>0.766</v>
+      </c>
+      <c r="G106" t="n">
+        <v>0.3917</v>
+      </c>
+      <c r="H106" t="n">
+        <v>0.4663</v>
+      </c>
+      <c r="I106" t="n">
+        <v>0.072</v>
+      </c>
+      <c r="J106" t="n">
+        <v>0.6844</v>
+      </c>
+      <c r="K106" t="n">
+        <v>0.1191</v>
+      </c>
+      <c r="L106" t="n">
+        <v>0.1302</v>
+      </c>
+      <c r="M106" t="n">
+        <v>0.0866</v>
+      </c>
+      <c r="N106" t="n">
+        <v>0.6201</v>
+      </c>
+      <c r="O106" t="n">
+        <v>0.0697</v>
       </c>
     </row>
   </sheetData>
